--- a/reduced matrix Y.xlsx
+++ b/reduced matrix Y.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <si>
     <t>created</t>
   </si>
@@ -364,6 +364,9 @@
     <t>T1003</t>
   </si>
   <si>
+    <t>T1003.005</t>
+  </si>
+  <si>
     <t>T1003.004</t>
   </si>
   <si>
@@ -412,6 +415,9 @@
     <t>T1566.002</t>
   </si>
   <si>
+    <t>T1542.003</t>
+  </si>
+  <si>
     <t>T1057</t>
   </si>
   <si>
@@ -428,6 +434,9 @@
   </si>
   <si>
     <t>T1055.012</t>
+  </si>
+  <si>
+    <t>T1572</t>
   </si>
   <si>
     <t>T1090</t>
@@ -1230,13 +1239,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GM92"/>
+  <dimension ref="A1:GP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:195">
+    <row r="1" spans="1:198">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1819,10 +1828,19 @@
       <c r="GM1" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="GN1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="2" spans="1:195">
+    <row r="2" spans="1:198">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B2" s="2">
         <v>43963</v>
@@ -2185,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="DR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT2">
         <v>0</v>
       </c>
       <c r="DU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW2">
         <v>0</v>
@@ -2242,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="EK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL2">
         <v>0</v>
@@ -2251,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="EN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO2">
         <v>0</v>
@@ -2281,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="EX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY2">
         <v>0</v>
@@ -2290,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="FA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB2">
         <v>0</v>
@@ -2404,12 +2422,21 @@
         <v>0</v>
       </c>
       <c r="GM2">
+        <v>0</v>
+      </c>
+      <c r="GN2">
+        <v>0</v>
+      </c>
+      <c r="GO2">
+        <v>0</v>
+      </c>
+      <c r="GP2">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:195">
+    <row r="3" spans="1:198">
       <c r="A3" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B3" s="2">
         <v>43963</v>
@@ -2772,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="DR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT3">
         <v>0</v>
@@ -2793,10 +2820,10 @@
         <v>0</v>
       </c>
       <c r="DY3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA3">
         <v>0</v>
@@ -2808,13 +2835,13 @@
         <v>0</v>
       </c>
       <c r="ED3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE3">
         <v>0</v>
       </c>
       <c r="EF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG3">
         <v>0</v>
@@ -2895,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="FG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FH3">
         <v>0</v>
@@ -2904,28 +2931,28 @@
         <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK3">
         <v>0</v>
       </c>
       <c r="FL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR3">
         <v>0</v>
@@ -2991,12 +3018,21 @@
         <v>0</v>
       </c>
       <c r="GM3">
+        <v>0</v>
+      </c>
+      <c r="GN3">
+        <v>0</v>
+      </c>
+      <c r="GO3">
+        <v>0</v>
+      </c>
+      <c r="GP3">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:195">
+    <row r="4" spans="1:198">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B4" s="2">
         <v>44267</v>
@@ -3359,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="DR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT4">
         <v>0</v>
@@ -3425,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="EN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO4">
         <v>0</v>
@@ -3434,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER4">
         <v>0</v>
@@ -3452,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="EW4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX4">
         <v>0</v>
@@ -3461,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA4">
         <v>0</v>
@@ -3470,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="FC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD4">
         <v>0</v>
@@ -3488,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="FI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
         <v>0</v>
@@ -3500,19 +3536,19 @@
         <v>0</v>
       </c>
       <c r="FM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO4">
         <v>0</v>
       </c>
       <c r="FP4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR4">
         <v>0</v>
@@ -3563,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="GH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GI4">
         <v>0</v>
@@ -3572,18 +3608,27 @@
         <v>0</v>
       </c>
       <c r="GK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM4">
+        <v>0</v>
+      </c>
+      <c r="GN4">
+        <v>0</v>
+      </c>
+      <c r="GO4">
+        <v>1</v>
+      </c>
+      <c r="GP4">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:195">
+    <row r="5" spans="1:198">
       <c r="A5" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B5" s="2">
         <v>43991</v>
@@ -3946,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="DR5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT5">
         <v>0</v>
@@ -3982,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="ED5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE5">
         <v>0</v>
       </c>
       <c r="EF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG5">
         <v>0</v>
@@ -4030,22 +4075,22 @@
         <v>0</v>
       </c>
       <c r="ET5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
         <v>0</v>
@@ -4072,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="FH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI5">
         <v>0</v>
@@ -4081,10 +4126,10 @@
         <v>0</v>
       </c>
       <c r="FK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM5">
         <v>0</v>
@@ -4093,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="FO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP5">
         <v>0</v>
@@ -4165,12 +4210,21 @@
         <v>0</v>
       </c>
       <c r="GM5">
+        <v>0</v>
+      </c>
+      <c r="GN5">
+        <v>0</v>
+      </c>
+      <c r="GO5">
+        <v>0</v>
+      </c>
+      <c r="GP5">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:195">
+    <row r="6" spans="1:198">
       <c r="A6" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B6" s="2">
         <v>43208</v>
@@ -4533,10 +4587,10 @@
         <v>0</v>
       </c>
       <c r="DR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT6">
         <v>0</v>
@@ -4572,25 +4626,25 @@
         <v>0</v>
       </c>
       <c r="EE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF6">
         <v>0</v>
       </c>
       <c r="EG6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH6">
         <v>0</v>
       </c>
       <c r="EI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
         <v>0</v>
       </c>
       <c r="EK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL6">
         <v>0</v>
@@ -4626,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="EW6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX6">
         <v>0</v>
@@ -4635,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA6">
         <v>0</v>
@@ -4701,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="FV6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW6">
         <v>0</v>
@@ -4710,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="FY6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
         <v>0</v>
@@ -4731,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="GF6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG6">
         <v>0</v>
@@ -4740,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="GI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
         <v>0</v>
@@ -4752,12 +4806,21 @@
         <v>0</v>
       </c>
       <c r="GM6">
+        <v>0</v>
+      </c>
+      <c r="GN6">
+        <v>0</v>
+      </c>
+      <c r="GO6">
+        <v>0</v>
+      </c>
+      <c r="GP6">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:195">
+    <row r="7" spans="1:198">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B7" s="2">
         <v>43390</v>
@@ -5156,25 +5219,25 @@
         <v>0</v>
       </c>
       <c r="ED7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE7">
         <v>0</v>
       </c>
       <c r="EF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH7">
         <v>0</v>
       </c>
       <c r="EI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK7">
         <v>0</v>
@@ -5183,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="EM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN7">
         <v>0</v>
@@ -5219,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="EY7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ7">
         <v>0</v>
@@ -5228,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="FB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC7">
         <v>0</v>
@@ -5339,12 +5402,21 @@
         <v>0</v>
       </c>
       <c r="GM7">
+        <v>0</v>
+      </c>
+      <c r="GN7">
+        <v>0</v>
+      </c>
+      <c r="GO7">
+        <v>0</v>
+      </c>
+      <c r="GP7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:195">
+    <row r="8" spans="1:198">
       <c r="A8" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B8" s="2">
         <v>44103</v>
@@ -5707,10 +5779,10 @@
         <v>0</v>
       </c>
       <c r="DR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT8">
         <v>0</v>
@@ -5731,10 +5803,10 @@
         <v>0</v>
       </c>
       <c r="DZ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB8">
         <v>0</v>
@@ -5743,13 +5815,13 @@
         <v>0</v>
       </c>
       <c r="ED8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE8">
         <v>0</v>
       </c>
       <c r="EF8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG8">
         <v>0</v>
@@ -5800,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="EW8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX8">
         <v>0</v>
@@ -5809,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="EZ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA8">
         <v>0</v>
@@ -5845,19 +5917,19 @@
         <v>0</v>
       </c>
       <c r="FL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN8">
         <v>0</v>
       </c>
       <c r="FO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ8">
         <v>0</v>
@@ -5926,12 +5998,21 @@
         <v>0</v>
       </c>
       <c r="GM8">
+        <v>0</v>
+      </c>
+      <c r="GN8">
+        <v>0</v>
+      </c>
+      <c r="GO8">
+        <v>0</v>
+      </c>
+      <c r="GP8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:195">
+    <row r="9" spans="1:198">
       <c r="A9" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B9" s="2">
         <v>44180</v>
@@ -6303,10 +6384,10 @@
         <v>0</v>
       </c>
       <c r="DU9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW9">
         <v>0</v>
@@ -6432,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="FL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM9">
         <v>0</v>
@@ -6450,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="FR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS9">
         <v>0</v>
@@ -6513,12 +6594,21 @@
         <v>0</v>
       </c>
       <c r="GM9">
+        <v>0</v>
+      </c>
+      <c r="GN9">
+        <v>0</v>
+      </c>
+      <c r="GO9">
+        <v>0</v>
+      </c>
+      <c r="GP9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:195">
+    <row r="10" spans="1:198">
       <c r="A10" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B10" s="2">
         <v>43572</v>
@@ -6881,10 +6971,10 @@
         <v>0</v>
       </c>
       <c r="DR10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT10">
         <v>0</v>
@@ -6971,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="EV10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW10">
         <v>0</v>
@@ -6980,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="EY10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ10">
         <v>0</v>
@@ -7019,25 +7109,25 @@
         <v>0</v>
       </c>
       <c r="FL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO10">
         <v>1</v>
       </c>
       <c r="FP10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS10">
         <v>0</v>
@@ -7100,12 +7190,21 @@
         <v>0</v>
       </c>
       <c r="GM10">
+        <v>0</v>
+      </c>
+      <c r="GN10">
+        <v>0</v>
+      </c>
+      <c r="GO10">
+        <v>0</v>
+      </c>
+      <c r="GP10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:195">
+    <row r="11" spans="1:198">
       <c r="A11" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B11" s="2">
         <v>42886</v>
@@ -7606,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="FL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM11">
         <v>0</v>
@@ -7624,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="FR11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS11">
         <v>0</v>
@@ -7687,12 +7786,21 @@
         <v>0</v>
       </c>
       <c r="GM11">
+        <v>0</v>
+      </c>
+      <c r="GN11">
+        <v>0</v>
+      </c>
+      <c r="GO11">
+        <v>0</v>
+      </c>
+      <c r="GP11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:195">
+    <row r="12" spans="1:198">
       <c r="A12" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B12" s="2">
         <v>43116</v>
@@ -8274,12 +8382,21 @@
         <v>0</v>
       </c>
       <c r="GM12">
+        <v>0</v>
+      </c>
+      <c r="GN12">
+        <v>0</v>
+      </c>
+      <c r="GO12">
+        <v>0</v>
+      </c>
+      <c r="GP12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:195">
+    <row r="13" spans="1:198">
       <c r="A13" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B13" s="2">
         <v>43599</v>
@@ -8642,10 +8759,10 @@
         <v>0</v>
       </c>
       <c r="DR13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT13">
         <v>0</v>
@@ -8681,13 +8798,13 @@
         <v>0</v>
       </c>
       <c r="EE13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF13">
         <v>0</v>
       </c>
       <c r="EG13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH13">
         <v>0</v>
@@ -8708,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="EN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO13">
         <v>0</v>
@@ -8717,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="EQ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER13">
         <v>0</v>
@@ -8741,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="EY13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ13">
         <v>0</v>
@@ -8750,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="FB13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC13">
         <v>0</v>
@@ -8768,7 +8885,7 @@
         <v>0</v>
       </c>
       <c r="FH13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI13">
         <v>0</v>
@@ -8777,10 +8894,10 @@
         <v>0</v>
       </c>
       <c r="FK13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM13">
         <v>0</v>
@@ -8789,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="FO13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP13">
         <v>0</v>
@@ -8801,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="FS13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT13">
         <v>0</v>
@@ -8810,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="FV13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW13">
         <v>0</v>
@@ -8837,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="GE13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GF13">
         <v>0</v>
@@ -8846,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="GH13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GI13">
         <v>0</v>
@@ -8858,15 +8975,24 @@
         <v>0</v>
       </c>
       <c r="GL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM13">
+        <v>0</v>
+      </c>
+      <c r="GN13">
+        <v>0</v>
+      </c>
+      <c r="GO13">
+        <v>1</v>
+      </c>
+      <c r="GP13">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:195">
+    <row r="14" spans="1:198">
       <c r="A14" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B14" s="2">
         <v>42886</v>
@@ -9229,10 +9355,10 @@
         <v>0</v>
       </c>
       <c r="DR14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT14">
         <v>0</v>
@@ -9265,13 +9391,13 @@
         <v>0</v>
       </c>
       <c r="ED14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE14">
         <v>0</v>
       </c>
       <c r="EF14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG14">
         <v>0</v>
@@ -9349,25 +9475,25 @@
         <v>0</v>
       </c>
       <c r="FF14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG14">
         <v>0</v>
       </c>
       <c r="FH14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ14">
         <v>0</v>
       </c>
       <c r="FK14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM14">
         <v>0</v>
@@ -9376,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="FO14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP14">
         <v>0</v>
@@ -9448,12 +9574,21 @@
         <v>0</v>
       </c>
       <c r="GM14">
+        <v>0</v>
+      </c>
+      <c r="GN14">
+        <v>0</v>
+      </c>
+      <c r="GO14">
+        <v>0</v>
+      </c>
+      <c r="GP14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:195">
+    <row r="15" spans="1:198">
       <c r="A15" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B15" s="2">
         <v>44032</v>
@@ -9816,10 +9951,10 @@
         <v>0</v>
       </c>
       <c r="DR15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT15">
         <v>0</v>
@@ -9852,13 +9987,13 @@
         <v>0</v>
       </c>
       <c r="ED15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE15">
         <v>0</v>
       </c>
       <c r="EF15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG15">
         <v>0</v>
@@ -9879,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="EM15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN15">
         <v>0</v>
@@ -9888,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="EP15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ15">
         <v>0</v>
@@ -9942,19 +10077,19 @@
         <v>0</v>
       </c>
       <c r="FH15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI15">
         <v>0</v>
       </c>
       <c r="FJ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM15">
         <v>1</v>
@@ -9963,13 +10098,13 @@
         <v>0</v>
       </c>
       <c r="FO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR15">
         <v>0</v>
@@ -9978,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="FT15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU15">
         <v>0</v>
@@ -9996,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="FZ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA15">
         <v>0</v>
@@ -10005,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="GC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD15">
         <v>0</v>
@@ -10035,12 +10170,21 @@
         <v>0</v>
       </c>
       <c r="GM15">
+        <v>0</v>
+      </c>
+      <c r="GN15">
+        <v>0</v>
+      </c>
+      <c r="GO15">
+        <v>0</v>
+      </c>
+      <c r="GP15">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:195">
+    <row r="16" spans="1:198">
       <c r="A16" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B16" s="2">
         <v>42886</v>
@@ -10439,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="ED16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE16">
         <v>0</v>
       </c>
       <c r="EF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH16">
         <v>0</v>
       </c>
       <c r="EI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ16">
         <v>0</v>
@@ -10481,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="ER16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES16">
         <v>0</v>
@@ -10490,7 +10634,7 @@
         <v>0</v>
       </c>
       <c r="EU16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV16">
         <v>0</v>
@@ -10544,10 +10688,10 @@
         <v>0</v>
       </c>
       <c r="FM16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO16">
         <v>0</v>
@@ -10556,13 +10700,13 @@
         <v>1</v>
       </c>
       <c r="FQ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR16">
         <v>0</v>
       </c>
       <c r="FS16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT16">
         <v>0</v>
@@ -10622,12 +10766,21 @@
         <v>0</v>
       </c>
       <c r="GM16">
+        <v>0</v>
+      </c>
+      <c r="GN16">
+        <v>0</v>
+      </c>
+      <c r="GO16">
+        <v>0</v>
+      </c>
+      <c r="GP16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:195">
+    <row r="17" spans="1:198">
       <c r="A17" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B17" s="2">
         <v>43390</v>
@@ -10990,10 +11143,10 @@
         <v>0</v>
       </c>
       <c r="DR17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT17">
         <v>0</v>
@@ -11026,13 +11179,13 @@
         <v>0</v>
       </c>
       <c r="ED17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE17">
         <v>0</v>
       </c>
       <c r="EF17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG17">
         <v>0</v>
@@ -11056,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="EN17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO17">
         <v>0</v>
@@ -11065,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="EQ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER17">
         <v>0</v>
@@ -11128,7 +11281,7 @@
         <v>0</v>
       </c>
       <c r="FL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM17">
         <v>0</v>
@@ -11140,16 +11293,16 @@
         <v>1</v>
       </c>
       <c r="FP17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ17">
         <v>0</v>
       </c>
       <c r="FR17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT17">
         <v>0</v>
@@ -11188,7 +11341,7 @@
         <v>0</v>
       </c>
       <c r="GF17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG17">
         <v>0</v>
@@ -11197,7 +11350,7 @@
         <v>0</v>
       </c>
       <c r="GI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GJ17">
         <v>0</v>
@@ -11209,12 +11362,21 @@
         <v>0</v>
       </c>
       <c r="GM17">
+        <v>0</v>
+      </c>
+      <c r="GN17">
+        <v>0</v>
+      </c>
+      <c r="GO17">
+        <v>0</v>
+      </c>
+      <c r="GP17">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:195">
+    <row r="18" spans="1:198">
       <c r="A18" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B18" s="2">
         <v>42886</v>
@@ -11604,10 +11766,10 @@
         <v>0</v>
       </c>
       <c r="EA18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC18">
         <v>0</v>
@@ -11715,10 +11877,10 @@
         <v>0</v>
       </c>
       <c r="FL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN18">
         <v>0</v>
@@ -11727,13 +11889,13 @@
         <v>1</v>
       </c>
       <c r="FP18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ18">
         <v>0</v>
       </c>
       <c r="FR18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS18">
         <v>0</v>
@@ -11796,12 +11958,21 @@
         <v>0</v>
       </c>
       <c r="GM18">
+        <v>0</v>
+      </c>
+      <c r="GN18">
+        <v>0</v>
+      </c>
+      <c r="GO18">
+        <v>0</v>
+      </c>
+      <c r="GP18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:195">
+    <row r="19" spans="1:198">
       <c r="A19" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B19" s="2">
         <v>42886</v>
@@ -12182,10 +12353,10 @@
         <v>0</v>
       </c>
       <c r="DX19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ19">
         <v>0</v>
@@ -12263,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="EY19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ19">
         <v>0</v>
@@ -12272,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="FB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC19">
         <v>0</v>
@@ -12290,7 +12461,7 @@
         <v>0</v>
       </c>
       <c r="FH19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI19">
         <v>0</v>
@@ -12299,13 +12470,13 @@
         <v>0</v>
       </c>
       <c r="FK19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN19">
         <v>0</v>
@@ -12314,16 +12485,16 @@
         <v>1</v>
       </c>
       <c r="FP19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ19">
         <v>0</v>
       </c>
       <c r="FR19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT19">
         <v>0</v>
@@ -12332,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="FV19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW19">
         <v>0</v>
@@ -12356,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="GD19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE19">
         <v>0</v>
@@ -12365,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="GG19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH19">
         <v>0</v>
@@ -12383,12 +12554,21 @@
         <v>0</v>
       </c>
       <c r="GM19">
+        <v>0</v>
+      </c>
+      <c r="GN19">
+        <v>0</v>
+      </c>
+      <c r="GO19">
+        <v>0</v>
+      </c>
+      <c r="GP19">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:195">
+    <row r="20" spans="1:198">
       <c r="A20" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2">
         <v>44260</v>
@@ -12754,10 +12934,10 @@
         <v>0</v>
       </c>
       <c r="DS20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU20">
         <v>0</v>
@@ -12787,13 +12967,13 @@
         <v>0</v>
       </c>
       <c r="ED20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE20">
         <v>0</v>
       </c>
       <c r="EF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG20">
         <v>0</v>
@@ -12829,7 +13009,7 @@
         <v>0</v>
       </c>
       <c r="ER20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES20">
         <v>0</v>
@@ -12838,7 +13018,7 @@
         <v>0</v>
       </c>
       <c r="EU20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV20">
         <v>0</v>
@@ -12889,7 +13069,7 @@
         <v>0</v>
       </c>
       <c r="FL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM20">
         <v>0</v>
@@ -12898,7 +13078,7 @@
         <v>0</v>
       </c>
       <c r="FO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP20">
         <v>0</v>
@@ -12910,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="FS20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT20">
         <v>0</v>
@@ -12919,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="FV20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW20">
         <v>0</v>
@@ -12970,12 +13150,21 @@
         <v>0</v>
       </c>
       <c r="GM20">
+        <v>0</v>
+      </c>
+      <c r="GN20">
+        <v>0</v>
+      </c>
+      <c r="GO20">
+        <v>0</v>
+      </c>
+      <c r="GP20">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:195">
+    <row r="21" spans="1:198">
       <c r="A21" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2">
         <v>43116</v>
@@ -13557,12 +13746,21 @@
         <v>0</v>
       </c>
       <c r="GM21">
+        <v>0</v>
+      </c>
+      <c r="GN21">
+        <v>0</v>
+      </c>
+      <c r="GO21">
+        <v>0</v>
+      </c>
+      <c r="GP21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:195">
+    <row r="22" spans="1:198">
       <c r="A22" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2">
         <v>44202</v>
@@ -13925,10 +14123,10 @@
         <v>0</v>
       </c>
       <c r="DR22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT22">
         <v>0</v>
@@ -13991,7 +14189,7 @@
         <v>0</v>
       </c>
       <c r="EN22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO22">
         <v>0</v>
@@ -14000,7 +14198,7 @@
         <v>0</v>
       </c>
       <c r="EQ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER22">
         <v>0</v>
@@ -14144,12 +14342,21 @@
         <v>0</v>
       </c>
       <c r="GM22">
+        <v>0</v>
+      </c>
+      <c r="GN22">
+        <v>0</v>
+      </c>
+      <c r="GO22">
+        <v>0</v>
+      </c>
+      <c r="GP22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:195">
+    <row r="23" spans="1:198">
       <c r="A23" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B23" s="2">
         <v>42886</v>
@@ -14731,12 +14938,21 @@
         <v>0</v>
       </c>
       <c r="GM23">
+        <v>0</v>
+      </c>
+      <c r="GN23">
+        <v>0</v>
+      </c>
+      <c r="GO23">
+        <v>0</v>
+      </c>
+      <c r="GP23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:195">
+    <row r="24" spans="1:198">
       <c r="A24" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B24" s="2">
         <v>42886</v>
@@ -15099,10 +15315,10 @@
         <v>0</v>
       </c>
       <c r="DR24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT24">
         <v>0</v>
@@ -15318,12 +15534,21 @@
         <v>0</v>
       </c>
       <c r="GM24">
+        <v>0</v>
+      </c>
+      <c r="GN24">
+        <v>0</v>
+      </c>
+      <c r="GO24">
+        <v>0</v>
+      </c>
+      <c r="GP24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:195">
+    <row r="25" spans="1:198">
       <c r="A25" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B25" s="2">
         <v>43957</v>
@@ -15722,16 +15947,16 @@
         <v>0</v>
       </c>
       <c r="ED25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH25">
         <v>0</v>
@@ -15740,7 +15965,7 @@
         <v>0</v>
       </c>
       <c r="EJ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK25">
         <v>0</v>
@@ -15749,7 +15974,7 @@
         <v>0</v>
       </c>
       <c r="EM25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN25">
         <v>0</v>
@@ -15827,7 +16052,7 @@
         <v>0</v>
       </c>
       <c r="FM25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN25">
         <v>0</v>
@@ -15836,7 +16061,7 @@
         <v>0</v>
       </c>
       <c r="FP25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ25">
         <v>0</v>
@@ -15869,7 +16094,7 @@
         <v>0</v>
       </c>
       <c r="GA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB25">
         <v>0</v>
@@ -15878,7 +16103,7 @@
         <v>0</v>
       </c>
       <c r="GD25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE25">
         <v>0</v>
@@ -15905,12 +16130,21 @@
         <v>0</v>
       </c>
       <c r="GM25">
+        <v>0</v>
+      </c>
+      <c r="GN25">
+        <v>0</v>
+      </c>
+      <c r="GO25">
+        <v>0</v>
+      </c>
+      <c r="GP25">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:195">
+    <row r="26" spans="1:198">
       <c r="A26" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B26" s="2">
         <v>43208</v>
@@ -16315,13 +16549,13 @@
         <v>0</v>
       </c>
       <c r="EF26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG26">
         <v>0</v>
       </c>
       <c r="EH26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI26">
         <v>0</v>
@@ -16372,7 +16606,7 @@
         <v>0</v>
       </c>
       <c r="EY26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ26">
         <v>0</v>
@@ -16381,7 +16615,7 @@
         <v>0</v>
       </c>
       <c r="FB26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC26">
         <v>0</v>
@@ -16411,7 +16645,7 @@
         <v>0</v>
       </c>
       <c r="FL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM26">
         <v>0</v>
@@ -16420,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="FO26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP26">
         <v>0</v>
@@ -16492,12 +16726,21 @@
         <v>0</v>
       </c>
       <c r="GM26">
+        <v>0</v>
+      </c>
+      <c r="GN26">
+        <v>0</v>
+      </c>
+      <c r="GO26">
+        <v>0</v>
+      </c>
+      <c r="GP26">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:195">
+    <row r="27" spans="1:198">
       <c r="A27" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B27" s="2">
         <v>43390</v>
@@ -16860,10 +17103,10 @@
         <v>0</v>
       </c>
       <c r="DR27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT27">
         <v>0</v>
@@ -16914,7 +17157,7 @@
         <v>0</v>
       </c>
       <c r="EJ27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK27">
         <v>0</v>
@@ -16923,7 +17166,7 @@
         <v>0</v>
       </c>
       <c r="EM27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN27">
         <v>0</v>
@@ -16998,7 +17241,7 @@
         <v>0</v>
       </c>
       <c r="FL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM27">
         <v>0</v>
@@ -17007,7 +17250,7 @@
         <v>0</v>
       </c>
       <c r="FO27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP27">
         <v>0</v>
@@ -17040,7 +17283,7 @@
         <v>0</v>
       </c>
       <c r="FZ27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA27">
         <v>0</v>
@@ -17049,7 +17292,7 @@
         <v>0</v>
       </c>
       <c r="GC27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD27">
         <v>0</v>
@@ -17079,12 +17322,21 @@
         <v>0</v>
       </c>
       <c r="GM27">
+        <v>0</v>
+      </c>
+      <c r="GN27">
+        <v>0</v>
+      </c>
+      <c r="GO27">
+        <v>0</v>
+      </c>
+      <c r="GP27">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:195">
+    <row r="28" spans="1:198">
       <c r="A28" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2">
         <v>42886</v>
@@ -17486,13 +17738,13 @@
         <v>0</v>
       </c>
       <c r="EE28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF28">
         <v>0</v>
       </c>
       <c r="EG28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH28">
         <v>0</v>
@@ -17666,12 +17918,21 @@
         <v>0</v>
       </c>
       <c r="GM28">
+        <v>0</v>
+      </c>
+      <c r="GN28">
+        <v>0</v>
+      </c>
+      <c r="GO28">
+        <v>0</v>
+      </c>
+      <c r="GP28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:195">
+    <row r="29" spans="1:198">
       <c r="A29" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B29" s="2">
         <v>43990</v>
@@ -18034,10 +18295,10 @@
         <v>0</v>
       </c>
       <c r="DR29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT29">
         <v>0</v>
@@ -18052,10 +18313,10 @@
         <v>0</v>
       </c>
       <c r="DX29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ29">
         <v>0</v>
@@ -18070,22 +18331,22 @@
         <v>0</v>
       </c>
       <c r="ED29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE29">
         <v>0</v>
       </c>
       <c r="EF29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH29">
         <v>0</v>
       </c>
       <c r="EI29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ29">
         <v>0</v>
@@ -18133,7 +18394,7 @@
         <v>0</v>
       </c>
       <c r="EY29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ29">
         <v>0</v>
@@ -18151,40 +18412,40 @@
         <v>0</v>
       </c>
       <c r="FE29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF29">
         <v>0</v>
       </c>
       <c r="FG29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FH29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL29">
         <v>1</v>
       </c>
       <c r="FM29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN29">
         <v>0</v>
       </c>
       <c r="FO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ29">
         <v>0</v>
@@ -18193,7 +18454,7 @@
         <v>0</v>
       </c>
       <c r="FS29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT29">
         <v>0</v>
@@ -18202,7 +18463,7 @@
         <v>0</v>
       </c>
       <c r="FV29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW29">
         <v>0</v>
@@ -18226,7 +18487,7 @@
         <v>0</v>
       </c>
       <c r="GD29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE29">
         <v>0</v>
@@ -18235,7 +18496,7 @@
         <v>0</v>
       </c>
       <c r="GG29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH29">
         <v>0</v>
@@ -18253,12 +18514,21 @@
         <v>0</v>
       </c>
       <c r="GM29">
+        <v>0</v>
+      </c>
+      <c r="GN29">
+        <v>0</v>
+      </c>
+      <c r="GO29">
+        <v>0</v>
+      </c>
+      <c r="GP29">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:195">
+    <row r="30" spans="1:198">
       <c r="A30" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2">
         <v>42886</v>
@@ -18657,13 +18927,13 @@
         <v>0</v>
       </c>
       <c r="ED30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE30">
         <v>0</v>
       </c>
       <c r="EF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG30">
         <v>0</v>
@@ -18747,7 +19017,7 @@
         <v>0</v>
       </c>
       <c r="FH30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI30">
         <v>0</v>
@@ -18756,7 +19026,7 @@
         <v>0</v>
       </c>
       <c r="FK30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL30">
         <v>0</v>
@@ -18771,7 +19041,7 @@
         <v>0</v>
       </c>
       <c r="FP30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ30">
         <v>0</v>
@@ -18780,7 +19050,7 @@
         <v>0</v>
       </c>
       <c r="FS30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT30">
         <v>0</v>
@@ -18840,12 +19110,21 @@
         <v>0</v>
       </c>
       <c r="GM30">
+        <v>0</v>
+      </c>
+      <c r="GN30">
+        <v>0</v>
+      </c>
+      <c r="GO30">
+        <v>0</v>
+      </c>
+      <c r="GP30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:195">
+    <row r="31" spans="1:198">
       <c r="A31" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B31" s="2">
         <v>44274</v>
@@ -19244,13 +19523,13 @@
         <v>0</v>
       </c>
       <c r="ED31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE31">
         <v>0</v>
       </c>
       <c r="EF31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG31">
         <v>0</v>
@@ -19334,7 +19613,7 @@
         <v>0</v>
       </c>
       <c r="FH31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI31">
         <v>0</v>
@@ -19343,7 +19622,7 @@
         <v>0</v>
       </c>
       <c r="FK31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL31">
         <v>0</v>
@@ -19406,19 +19685,19 @@
         <v>0</v>
       </c>
       <c r="GF31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GH31">
         <v>0</v>
       </c>
       <c r="GI31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GJ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK31">
         <v>0</v>
@@ -19427,12 +19706,21 @@
         <v>0</v>
       </c>
       <c r="GM31">
+        <v>0</v>
+      </c>
+      <c r="GN31">
+        <v>0</v>
+      </c>
+      <c r="GO31">
+        <v>0</v>
+      </c>
+      <c r="GP31">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:195">
+    <row r="32" spans="1:198">
       <c r="A32" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B32" s="2">
         <v>42886</v>
@@ -19894,7 +20182,7 @@
         <v>0</v>
       </c>
       <c r="EY32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ32">
         <v>0</v>
@@ -19903,7 +20191,7 @@
         <v>0</v>
       </c>
       <c r="FB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC32">
         <v>0</v>
@@ -20014,12 +20302,21 @@
         <v>0</v>
       </c>
       <c r="GM32">
+        <v>0</v>
+      </c>
+      <c r="GN32">
+        <v>0</v>
+      </c>
+      <c r="GO32">
+        <v>0</v>
+      </c>
+      <c r="GP32">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:195">
+    <row r="33" spans="1:198">
       <c r="A33" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B33" s="2">
         <v>43116</v>
@@ -20445,7 +20742,7 @@
         <v>0</v>
       </c>
       <c r="EM33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN33">
         <v>0</v>
@@ -20454,7 +20751,7 @@
         <v>0</v>
       </c>
       <c r="EP33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ33">
         <v>0</v>
@@ -20601,12 +20898,21 @@
         <v>0</v>
       </c>
       <c r="GM33">
+        <v>0</v>
+      </c>
+      <c r="GN33">
+        <v>0</v>
+      </c>
+      <c r="GO33">
+        <v>0</v>
+      </c>
+      <c r="GP33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:195">
+    <row r="34" spans="1:198">
       <c r="A34" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B34" s="2">
         <v>43390</v>
@@ -20969,19 +21275,19 @@
         <v>0</v>
       </c>
       <c r="DR34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT34">
         <v>0</v>
       </c>
       <c r="DU34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW34">
         <v>0</v>
@@ -20990,16 +21296,16 @@
         <v>0</v>
       </c>
       <c r="DY34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA34">
         <v>0</v>
       </c>
       <c r="EB34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC34">
         <v>1</v>
@@ -21008,10 +21314,10 @@
         <v>1</v>
       </c>
       <c r="EE34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG34">
         <v>0</v>
@@ -21020,13 +21326,13 @@
         <v>0</v>
       </c>
       <c r="EI34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ34">
         <v>0</v>
       </c>
       <c r="EK34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL34">
         <v>0</v>
@@ -21038,7 +21344,7 @@
         <v>0</v>
       </c>
       <c r="EO34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP34">
         <v>0</v>
@@ -21056,13 +21362,13 @@
         <v>0</v>
       </c>
       <c r="EU34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV34">
         <v>0</v>
       </c>
       <c r="EW34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX34">
         <v>0</v>
@@ -21071,7 +21377,7 @@
         <v>0</v>
       </c>
       <c r="EZ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA34">
         <v>0</v>
@@ -21101,13 +21407,13 @@
         <v>0</v>
       </c>
       <c r="FJ34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK34">
         <v>0</v>
       </c>
       <c r="FL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM34">
         <v>1</v>
@@ -21125,10 +21431,10 @@
         <v>0</v>
       </c>
       <c r="FR34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT34">
         <v>0</v>
@@ -21137,16 +21443,16 @@
         <v>0</v>
       </c>
       <c r="FV34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX34">
         <v>0</v>
       </c>
       <c r="FY34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ34">
         <v>1</v>
@@ -21158,7 +21464,7 @@
         <v>0</v>
       </c>
       <c r="GC34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD34">
         <v>0</v>
@@ -21188,12 +21494,21 @@
         <v>0</v>
       </c>
       <c r="GM34">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="GN34">
+        <v>0</v>
+      </c>
+      <c r="GO34">
+        <v>0</v>
+      </c>
+      <c r="GP34">
+        <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:195">
+    <row r="35" spans="1:198">
       <c r="A35" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B35" s="2">
         <v>42886</v>
@@ -21556,19 +21871,19 @@
         <v>0</v>
       </c>
       <c r="DR35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT35">
         <v>0</v>
       </c>
       <c r="DU35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW35">
         <v>0</v>
@@ -21592,13 +21907,13 @@
         <v>0</v>
       </c>
       <c r="ED35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE35">
         <v>0</v>
       </c>
       <c r="EF35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG35">
         <v>0</v>
@@ -21655,7 +21970,7 @@
         <v>0</v>
       </c>
       <c r="EY35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ35">
         <v>0</v>
@@ -21664,7 +21979,7 @@
         <v>0</v>
       </c>
       <c r="FB35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC35">
         <v>0</v>
@@ -21694,25 +22009,25 @@
         <v>0</v>
       </c>
       <c r="FL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO35">
         <v>1</v>
       </c>
       <c r="FP35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS35">
         <v>0</v>
@@ -21754,7 +22069,7 @@
         <v>0</v>
       </c>
       <c r="GF35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG35">
         <v>0</v>
@@ -21763,7 +22078,7 @@
         <v>0</v>
       </c>
       <c r="GI35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GJ35">
         <v>0</v>
@@ -21775,12 +22090,21 @@
         <v>0</v>
       </c>
       <c r="GM35">
+        <v>0</v>
+      </c>
+      <c r="GN35">
+        <v>0</v>
+      </c>
+      <c r="GO35">
+        <v>0</v>
+      </c>
+      <c r="GP35">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:195">
+    <row r="36" spans="1:198">
       <c r="A36" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B36" s="2">
         <v>43116</v>
@@ -22362,12 +22686,21 @@
         <v>0</v>
       </c>
       <c r="GM36">
+        <v>0</v>
+      </c>
+      <c r="GN36">
+        <v>0</v>
+      </c>
+      <c r="GO36">
+        <v>0</v>
+      </c>
+      <c r="GP36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:195">
+    <row r="37" spans="1:198">
       <c r="A37" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B37" s="2">
         <v>43494</v>
@@ -22730,10 +23063,10 @@
         <v>0</v>
       </c>
       <c r="DR37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT37">
         <v>0</v>
@@ -22766,13 +23099,13 @@
         <v>0</v>
       </c>
       <c r="ED37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE37">
         <v>0</v>
       </c>
       <c r="EF37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG37">
         <v>0</v>
@@ -22928,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="GF37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG37">
         <v>0</v>
@@ -22946,15 +23279,24 @@
         <v>0</v>
       </c>
       <c r="GL37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GM37">
+        <v>0</v>
+      </c>
+      <c r="GN37">
+        <v>0</v>
+      </c>
+      <c r="GO37">
+        <v>0</v>
+      </c>
+      <c r="GP37">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:195">
+    <row r="38" spans="1:198">
       <c r="A38" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B38" s="2">
         <v>43390</v>
@@ -23416,7 +23758,7 @@
         <v>0</v>
       </c>
       <c r="EY38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ38">
         <v>0</v>
@@ -23425,7 +23767,7 @@
         <v>0</v>
       </c>
       <c r="FB38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC38">
         <v>0</v>
@@ -23455,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="FL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN38">
         <v>0</v>
@@ -23467,16 +23809,16 @@
         <v>1</v>
       </c>
       <c r="FP38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ38">
         <v>0</v>
       </c>
       <c r="FR38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT38">
         <v>0</v>
@@ -23485,7 +23827,7 @@
         <v>0</v>
       </c>
       <c r="FV38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW38">
         <v>0</v>
@@ -23536,12 +23878,21 @@
         <v>0</v>
       </c>
       <c r="GM38">
+        <v>0</v>
+      </c>
+      <c r="GN38">
+        <v>0</v>
+      </c>
+      <c r="GO38">
+        <v>0</v>
+      </c>
+      <c r="GP38">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:195">
+    <row r="39" spans="1:198">
       <c r="A39" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B39" s="2">
         <v>42886</v>
@@ -23904,10 +24255,10 @@
         <v>0</v>
       </c>
       <c r="DR39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT39">
         <v>0</v>
@@ -23922,10 +24273,10 @@
         <v>0</v>
       </c>
       <c r="DX39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ39">
         <v>0</v>
@@ -23985,7 +24336,7 @@
         <v>0</v>
       </c>
       <c r="ES39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET39">
         <v>0</v>
@@ -23994,7 +24345,7 @@
         <v>0</v>
       </c>
       <c r="EV39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW39">
         <v>0</v>
@@ -24123,12 +24474,21 @@
         <v>0</v>
       </c>
       <c r="GM39">
+        <v>0</v>
+      </c>
+      <c r="GN39">
+        <v>0</v>
+      </c>
+      <c r="GO39">
+        <v>0</v>
+      </c>
+      <c r="GP39">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:195">
+    <row r="40" spans="1:198">
       <c r="A40" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B40" s="2">
         <v>43971</v>
@@ -24509,10 +24869,10 @@
         <v>0</v>
       </c>
       <c r="DX40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ40">
         <v>0</v>
@@ -24527,13 +24887,13 @@
         <v>0</v>
       </c>
       <c r="ED40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE40">
         <v>0</v>
       </c>
       <c r="EF40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG40">
         <v>0</v>
@@ -24569,19 +24929,19 @@
         <v>0</v>
       </c>
       <c r="ER40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET40">
         <v>0</v>
       </c>
       <c r="EU40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW40">
         <v>0</v>
@@ -24611,7 +24971,7 @@
         <v>0</v>
       </c>
       <c r="FF40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG40">
         <v>0</v>
@@ -24620,7 +24980,7 @@
         <v>0</v>
       </c>
       <c r="FI40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ40">
         <v>0</v>
@@ -24632,19 +24992,19 @@
         <v>0</v>
       </c>
       <c r="FM40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO40">
         <v>0</v>
       </c>
       <c r="FP40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR40">
         <v>0</v>
@@ -24710,12 +25070,21 @@
         <v>0</v>
       </c>
       <c r="GM40">
+        <v>0</v>
+      </c>
+      <c r="GN40">
+        <v>0</v>
+      </c>
+      <c r="GO40">
+        <v>0</v>
+      </c>
+      <c r="GP40">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:195">
+    <row r="41" spans="1:198">
       <c r="A41" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B41" s="2">
         <v>43208</v>
@@ -25165,7 +25534,7 @@
         <v>0</v>
       </c>
       <c r="EU41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV41">
         <v>0</v>
@@ -25174,7 +25543,7 @@
         <v>0</v>
       </c>
       <c r="EX41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY41">
         <v>0</v>
@@ -25243,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="FU41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV41">
         <v>0</v>
@@ -25252,7 +25621,7 @@
         <v>0</v>
       </c>
       <c r="FX41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY41">
         <v>0</v>
@@ -25267,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="GC41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GD41">
         <v>0</v>
@@ -25276,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="GF41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GG41">
         <v>0</v>
@@ -25297,12 +25666,21 @@
         <v>0</v>
       </c>
       <c r="GM41">
+        <v>0</v>
+      </c>
+      <c r="GN41">
+        <v>0</v>
+      </c>
+      <c r="GO41">
+        <v>0</v>
+      </c>
+      <c r="GP41">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:195">
+    <row r="42" spans="1:198">
       <c r="A42" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B42" s="2">
         <v>42886</v>
@@ -25746,7 +26124,7 @@
         <v>0</v>
       </c>
       <c r="ES42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET42">
         <v>0</v>
@@ -25755,7 +26133,7 @@
         <v>0</v>
       </c>
       <c r="EV42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW42">
         <v>0</v>
@@ -25803,10 +26181,10 @@
         <v>0</v>
       </c>
       <c r="FL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN42">
         <v>0</v>
@@ -25815,13 +26193,13 @@
         <v>1</v>
       </c>
       <c r="FP42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ42">
         <v>0</v>
       </c>
       <c r="FR42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS42">
         <v>0</v>
@@ -25884,12 +26262,21 @@
         <v>0</v>
       </c>
       <c r="GM42">
+        <v>0</v>
+      </c>
+      <c r="GN42">
+        <v>0</v>
+      </c>
+      <c r="GO42">
+        <v>0</v>
+      </c>
+      <c r="GP42">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:195">
+    <row r="43" spans="1:198">
       <c r="A43" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B43" s="2">
         <v>42886</v>
@@ -26261,10 +26648,10 @@
         <v>0</v>
       </c>
       <c r="DU43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW43">
         <v>0</v>
@@ -26339,7 +26726,7 @@
         <v>0</v>
       </c>
       <c r="EU43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV43">
         <v>0</v>
@@ -26348,7 +26735,7 @@
         <v>0</v>
       </c>
       <c r="EX43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY43">
         <v>0</v>
@@ -26471,12 +26858,21 @@
         <v>0</v>
       </c>
       <c r="GM43">
+        <v>0</v>
+      </c>
+      <c r="GN43">
+        <v>0</v>
+      </c>
+      <c r="GO43">
+        <v>0</v>
+      </c>
+      <c r="GP43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:195">
+    <row r="44" spans="1:198">
       <c r="A44" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B44" s="2">
         <v>43620</v>
@@ -26839,10 +27235,10 @@
         <v>0</v>
       </c>
       <c r="DR44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT44">
         <v>0</v>
@@ -26875,13 +27271,13 @@
         <v>0</v>
       </c>
       <c r="ED44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE44">
         <v>0</v>
       </c>
       <c r="EF44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG44">
         <v>0</v>
@@ -26890,13 +27286,13 @@
         <v>0</v>
       </c>
       <c r="EI44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL44">
         <v>0</v>
@@ -26905,22 +27301,22 @@
         <v>1</v>
       </c>
       <c r="EN44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO44">
         <v>0</v>
       </c>
       <c r="EP44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER44">
         <v>0</v>
       </c>
       <c r="ES44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET44">
         <v>0</v>
@@ -26929,7 +27325,7 @@
         <v>0</v>
       </c>
       <c r="EV44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW44">
         <v>0</v>
@@ -26938,7 +27334,7 @@
         <v>0</v>
       </c>
       <c r="EY44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ44">
         <v>0</v>
@@ -26947,7 +27343,7 @@
         <v>0</v>
       </c>
       <c r="FB44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC44">
         <v>0</v>
@@ -26977,7 +27373,7 @@
         <v>0</v>
       </c>
       <c r="FL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM44">
         <v>0</v>
@@ -26986,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="FO44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ44">
         <v>0</v>
@@ -26998,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="FS44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU44">
         <v>0</v>
@@ -27010,7 +27406,7 @@
         <v>0</v>
       </c>
       <c r="FW44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX44">
         <v>0</v>
@@ -27040,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="GG44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GH44">
         <v>0</v>
@@ -27049,21 +27445,30 @@
         <v>0</v>
       </c>
       <c r="GJ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK44">
         <v>0</v>
       </c>
       <c r="GL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM44">
+        <v>0</v>
+      </c>
+      <c r="GN44">
+        <v>0</v>
+      </c>
+      <c r="GO44">
+        <v>1</v>
+      </c>
+      <c r="GP44">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:195">
+    <row r="45" spans="1:198">
       <c r="A45" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B45" s="2">
         <v>43959</v>
@@ -27645,12 +28050,21 @@
         <v>0</v>
       </c>
       <c r="GM45">
+        <v>0</v>
+      </c>
+      <c r="GN45">
+        <v>0</v>
+      </c>
+      <c r="GO45">
+        <v>0</v>
+      </c>
+      <c r="GP45">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:195">
+    <row r="46" spans="1:198">
       <c r="A46" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B46" s="2">
         <v>43390</v>
@@ -28013,19 +28427,19 @@
         <v>0</v>
       </c>
       <c r="DR46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT46">
         <v>0</v>
       </c>
       <c r="DU46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW46">
         <v>0</v>
@@ -28049,13 +28463,13 @@
         <v>0</v>
       </c>
       <c r="ED46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE46">
         <v>0</v>
       </c>
       <c r="EF46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG46">
         <v>0</v>
@@ -28112,7 +28526,7 @@
         <v>0</v>
       </c>
       <c r="EY46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ46">
         <v>0</v>
@@ -28121,7 +28535,7 @@
         <v>0</v>
       </c>
       <c r="FB46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC46">
         <v>0</v>
@@ -28139,7 +28553,7 @@
         <v>0</v>
       </c>
       <c r="FH46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI46">
         <v>0</v>
@@ -28148,13 +28562,13 @@
         <v>0</v>
       </c>
       <c r="FK46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN46">
         <v>0</v>
@@ -28163,13 +28577,13 @@
         <v>1</v>
       </c>
       <c r="FP46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ46">
         <v>0</v>
       </c>
       <c r="FR46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS46">
         <v>0</v>
@@ -28232,12 +28646,21 @@
         <v>0</v>
       </c>
       <c r="GM46">
+        <v>0</v>
+      </c>
+      <c r="GN46">
+        <v>0</v>
+      </c>
+      <c r="GO46">
+        <v>0</v>
+      </c>
+      <c r="GP46">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:195">
+    <row r="47" spans="1:198">
       <c r="A47" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B47" s="2">
         <v>44001</v>
@@ -28600,19 +29023,19 @@
         <v>0</v>
       </c>
       <c r="DR47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT47">
         <v>0</v>
       </c>
       <c r="DU47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW47">
         <v>0</v>
@@ -28630,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="EB47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC47">
         <v>1</v>
@@ -28642,7 +29065,7 @@
         <v>0</v>
       </c>
       <c r="EF47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG47">
         <v>0</v>
@@ -28666,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="EN47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO47">
         <v>0</v>
@@ -28675,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="EQ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER47">
         <v>0</v>
@@ -28693,22 +29116,22 @@
         <v>0</v>
       </c>
       <c r="EW47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX47">
         <v>0</v>
       </c>
       <c r="EY47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA47">
         <v>0</v>
       </c>
       <c r="FB47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC47">
         <v>0</v>
@@ -28717,7 +29140,7 @@
         <v>0</v>
       </c>
       <c r="FE47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF47">
         <v>0</v>
@@ -28735,13 +29158,13 @@
         <v>0</v>
       </c>
       <c r="FK47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN47">
         <v>0</v>
@@ -28750,13 +29173,13 @@
         <v>1</v>
       </c>
       <c r="FP47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ47">
         <v>0</v>
       </c>
       <c r="FR47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS47">
         <v>0</v>
@@ -28771,7 +29194,7 @@
         <v>0</v>
       </c>
       <c r="FW47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX47">
         <v>0</v>
@@ -28789,7 +29212,7 @@
         <v>0</v>
       </c>
       <c r="GC47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD47">
         <v>0</v>
@@ -28816,15 +29239,24 @@
         <v>0</v>
       </c>
       <c r="GL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM47">
+        <v>0</v>
+      </c>
+      <c r="GN47">
+        <v>0</v>
+      </c>
+      <c r="GO47">
+        <v>1</v>
+      </c>
+      <c r="GP47">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:195">
+    <row r="48" spans="1:198">
       <c r="A48" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B48" s="2">
         <v>43208</v>
@@ -29241,7 +29673,7 @@
         <v>0</v>
       </c>
       <c r="EJ48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK48">
         <v>0</v>
@@ -29250,7 +29682,7 @@
         <v>0</v>
       </c>
       <c r="EM48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN48">
         <v>0</v>
@@ -29406,12 +29838,21 @@
         <v>0</v>
       </c>
       <c r="GM48">
+        <v>0</v>
+      </c>
+      <c r="GN48">
+        <v>0</v>
+      </c>
+      <c r="GO48">
+        <v>0</v>
+      </c>
+      <c r="GP48">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:195">
+    <row r="49" spans="1:198">
       <c r="A49" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B49" s="2">
         <v>43116</v>
@@ -29774,10 +30215,10 @@
         <v>0</v>
       </c>
       <c r="DR49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT49">
         <v>0</v>
@@ -29810,13 +30251,13 @@
         <v>0</v>
       </c>
       <c r="ED49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE49">
         <v>0</v>
       </c>
       <c r="EF49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG49">
         <v>0</v>
@@ -29840,7 +30281,7 @@
         <v>0</v>
       </c>
       <c r="EN49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO49">
         <v>0</v>
@@ -29849,7 +30290,7 @@
         <v>0</v>
       </c>
       <c r="EQ49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER49">
         <v>0</v>
@@ -29912,28 +30353,28 @@
         <v>0</v>
       </c>
       <c r="FL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP49">
         <v>1</v>
       </c>
       <c r="FQ49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR49">
         <v>0</v>
       </c>
       <c r="FS49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT49">
         <v>0</v>
@@ -29993,12 +30434,21 @@
         <v>0</v>
       </c>
       <c r="GM49">
+        <v>0</v>
+      </c>
+      <c r="GN49">
+        <v>0</v>
+      </c>
+      <c r="GO49">
+        <v>0</v>
+      </c>
+      <c r="GP49">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:195">
+    <row r="50" spans="1:198">
       <c r="A50" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B50" s="2">
         <v>42886</v>
@@ -30580,12 +31030,21 @@
         <v>0</v>
       </c>
       <c r="GM50">
+        <v>0</v>
+      </c>
+      <c r="GN50">
+        <v>0</v>
+      </c>
+      <c r="GO50">
+        <v>0</v>
+      </c>
+      <c r="GP50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:195">
+    <row r="51" spans="1:198">
       <c r="A51" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B51" s="2">
         <v>43083</v>
@@ -31014,7 +31473,7 @@
         <v>0</v>
       </c>
       <c r="EN51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO51">
         <v>0</v>
@@ -31023,7 +31482,7 @@
         <v>0</v>
       </c>
       <c r="EQ51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER51">
         <v>0</v>
@@ -31086,7 +31545,7 @@
         <v>0</v>
       </c>
       <c r="FL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM51">
         <v>0</v>
@@ -31104,7 +31563,7 @@
         <v>0</v>
       </c>
       <c r="FR51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS51">
         <v>0</v>
@@ -31167,12 +31626,21 @@
         <v>0</v>
       </c>
       <c r="GM51">
+        <v>0</v>
+      </c>
+      <c r="GN51">
+        <v>0</v>
+      </c>
+      <c r="GO51">
+        <v>0</v>
+      </c>
+      <c r="GP51">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:195">
+    <row r="52" spans="1:198">
       <c r="A52" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B52" s="2">
         <v>43208</v>
@@ -31571,13 +32039,13 @@
         <v>0</v>
       </c>
       <c r="ED52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE52">
         <v>0</v>
       </c>
       <c r="EF52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG52">
         <v>0</v>
@@ -31673,7 +32141,7 @@
         <v>0</v>
       </c>
       <c r="FL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM52">
         <v>0</v>
@@ -31685,16 +32153,16 @@
         <v>1</v>
       </c>
       <c r="FP52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ52">
         <v>0</v>
       </c>
       <c r="FR52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT52">
         <v>0</v>
@@ -31754,12 +32222,21 @@
         <v>0</v>
       </c>
       <c r="GM52">
+        <v>0</v>
+      </c>
+      <c r="GN52">
+        <v>0</v>
+      </c>
+      <c r="GO52">
+        <v>0</v>
+      </c>
+      <c r="GP52">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:195">
+    <row r="53" spans="1:198">
       <c r="A53" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B53" s="2">
         <v>43549</v>
@@ -32140,10 +32617,10 @@
         <v>0</v>
       </c>
       <c r="DX53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ53">
         <v>0</v>
@@ -32185,7 +32662,7 @@
         <v>0</v>
       </c>
       <c r="EM53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN53">
         <v>0</v>
@@ -32194,13 +32671,13 @@
         <v>0</v>
       </c>
       <c r="EP53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ53">
         <v>0</v>
       </c>
       <c r="ER53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES53">
         <v>0</v>
@@ -32209,7 +32686,7 @@
         <v>0</v>
       </c>
       <c r="EU53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV53">
         <v>0</v>
@@ -32227,7 +32704,7 @@
         <v>0</v>
       </c>
       <c r="FA53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB53">
         <v>0</v>
@@ -32236,7 +32713,7 @@
         <v>0</v>
       </c>
       <c r="FD53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE53">
         <v>0</v>
@@ -32263,7 +32740,7 @@
         <v>0</v>
       </c>
       <c r="FM53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN53">
         <v>0</v>
@@ -32272,7 +32749,7 @@
         <v>0</v>
       </c>
       <c r="FP53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ53">
         <v>0</v>
@@ -32338,15 +32815,24 @@
         <v>0</v>
       </c>
       <c r="GL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM53">
+        <v>0</v>
+      </c>
+      <c r="GN53">
+        <v>0</v>
+      </c>
+      <c r="GO53">
+        <v>1</v>
+      </c>
+      <c r="GP53">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:195">
+    <row r="54" spans="1:198">
       <c r="A54" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B54" s="2">
         <v>44249</v>
@@ -32709,16 +33195,16 @@
         <v>0</v>
       </c>
       <c r="DR54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV54">
         <v>0</v>
@@ -32745,16 +33231,16 @@
         <v>0</v>
       </c>
       <c r="ED54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH54">
         <v>0</v>
@@ -32775,7 +33261,7 @@
         <v>0</v>
       </c>
       <c r="EN54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO54">
         <v>0</v>
@@ -32784,7 +33270,7 @@
         <v>0</v>
       </c>
       <c r="EQ54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER54">
         <v>0</v>
@@ -32835,7 +33321,7 @@
         <v>0</v>
       </c>
       <c r="FH54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI54">
         <v>0</v>
@@ -32844,7 +33330,7 @@
         <v>0</v>
       </c>
       <c r="FK54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL54">
         <v>0</v>
@@ -32853,7 +33339,7 @@
         <v>0</v>
       </c>
       <c r="FN54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO54">
         <v>0</v>
@@ -32862,7 +33348,7 @@
         <v>0</v>
       </c>
       <c r="FQ54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR54">
         <v>0</v>
@@ -32928,12 +33414,21 @@
         <v>0</v>
       </c>
       <c r="GM54">
+        <v>0</v>
+      </c>
+      <c r="GN54">
+        <v>0</v>
+      </c>
+      <c r="GO54">
+        <v>0</v>
+      </c>
+      <c r="GP54">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:195">
+    <row r="55" spans="1:198">
       <c r="A55" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B55" s="2">
         <v>44103</v>
@@ -33437,22 +33932,22 @@
         <v>0</v>
       </c>
       <c r="FM55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN55">
         <v>0</v>
       </c>
       <c r="FO55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ55">
         <v>0</v>
       </c>
       <c r="FR55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS55">
         <v>0</v>
@@ -33515,12 +34010,21 @@
         <v>0</v>
       </c>
       <c r="GM55">
+        <v>0</v>
+      </c>
+      <c r="GN55">
+        <v>0</v>
+      </c>
+      <c r="GO55">
+        <v>0</v>
+      </c>
+      <c r="GP55">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:195">
+    <row r="56" spans="1:198">
       <c r="A56" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B56" s="2">
         <v>44098</v>
@@ -33907,10 +34411,10 @@
         <v>0</v>
       </c>
       <c r="DZ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB56">
         <v>0</v>
@@ -34021,10 +34525,10 @@
         <v>0</v>
       </c>
       <c r="FL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN56">
         <v>0</v>
@@ -34033,13 +34537,13 @@
         <v>1</v>
       </c>
       <c r="FP56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ56">
         <v>0</v>
       </c>
       <c r="FR56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS56">
         <v>0</v>
@@ -34102,12 +34606,21 @@
         <v>0</v>
       </c>
       <c r="GM56">
+        <v>0</v>
+      </c>
+      <c r="GN56">
+        <v>0</v>
+      </c>
+      <c r="GO56">
+        <v>0</v>
+      </c>
+      <c r="GP56">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:195">
+    <row r="57" spans="1:198">
       <c r="A57" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B57" s="2">
         <v>43208</v>
@@ -34509,13 +35022,13 @@
         <v>0</v>
       </c>
       <c r="EE57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF57">
         <v>0</v>
       </c>
       <c r="EG57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH57">
         <v>0</v>
@@ -34689,12 +35202,21 @@
         <v>0</v>
       </c>
       <c r="GM57">
+        <v>0</v>
+      </c>
+      <c r="GN57">
+        <v>0</v>
+      </c>
+      <c r="GO57">
+        <v>0</v>
+      </c>
+      <c r="GP57">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:195">
+    <row r="58" spans="1:198">
       <c r="A58" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B58" s="2">
         <v>42886</v>
@@ -35093,13 +35615,13 @@
         <v>0</v>
       </c>
       <c r="ED58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE58">
         <v>0</v>
       </c>
       <c r="EF58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG58">
         <v>0</v>
@@ -35195,7 +35717,7 @@
         <v>0</v>
       </c>
       <c r="FL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM58">
         <v>0</v>
@@ -35213,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="FR58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS58">
         <v>0</v>
@@ -35276,12 +35798,21 @@
         <v>0</v>
       </c>
       <c r="GM58">
+        <v>0</v>
+      </c>
+      <c r="GN58">
+        <v>0</v>
+      </c>
+      <c r="GO58">
+        <v>0</v>
+      </c>
+      <c r="GP58">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:195">
+    <row r="59" spans="1:198">
       <c r="A59" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B59" s="2">
         <v>43986</v>
@@ -35644,10 +36175,10 @@
         <v>0</v>
       </c>
       <c r="DR59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT59">
         <v>0</v>
@@ -35803,7 +36334,7 @@
         <v>0</v>
       </c>
       <c r="FS59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT59">
         <v>0</v>
@@ -35812,7 +36343,7 @@
         <v>0</v>
       </c>
       <c r="FV59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW59">
         <v>0</v>
@@ -35863,12 +36394,21 @@
         <v>0</v>
       </c>
       <c r="GM59">
+        <v>0</v>
+      </c>
+      <c r="GN59">
+        <v>0</v>
+      </c>
+      <c r="GO59">
+        <v>0</v>
+      </c>
+      <c r="GP59">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:195">
+    <row r="60" spans="1:198">
       <c r="A60" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B60" s="2">
         <v>43116</v>
@@ -36270,13 +36810,13 @@
         <v>0</v>
       </c>
       <c r="EE60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF60">
         <v>0</v>
       </c>
       <c r="EG60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH60">
         <v>0</v>
@@ -36357,7 +36897,7 @@
         <v>0</v>
       </c>
       <c r="FH60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI60">
         <v>0</v>
@@ -36366,10 +36906,10 @@
         <v>0</v>
       </c>
       <c r="FK60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM60">
         <v>0</v>
@@ -36378,13 +36918,13 @@
         <v>0</v>
       </c>
       <c r="FO60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP60">
         <v>0</v>
       </c>
       <c r="FQ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR60">
         <v>0</v>
@@ -36393,7 +36933,7 @@
         <v>0</v>
       </c>
       <c r="FT60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU60">
         <v>0</v>
@@ -36450,12 +36990,21 @@
         <v>0</v>
       </c>
       <c r="GM60">
+        <v>0</v>
+      </c>
+      <c r="GN60">
+        <v>0</v>
+      </c>
+      <c r="GO60">
+        <v>0</v>
+      </c>
+      <c r="GP60">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:195">
+    <row r="61" spans="1:198">
       <c r="A61" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B61" s="2">
         <v>43950</v>
@@ -36818,10 +37367,10 @@
         <v>0</v>
       </c>
       <c r="DR61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT61">
         <v>0</v>
@@ -36905,7 +37454,7 @@
         <v>0</v>
       </c>
       <c r="EU61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV61">
         <v>0</v>
@@ -36914,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="EX61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY61">
         <v>0</v>
@@ -36983,7 +37532,7 @@
         <v>0</v>
       </c>
       <c r="FU61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV61">
         <v>0</v>
@@ -36992,7 +37541,7 @@
         <v>0</v>
       </c>
       <c r="FX61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY61">
         <v>0</v>
@@ -37037,12 +37586,21 @@
         <v>0</v>
       </c>
       <c r="GM61">
+        <v>0</v>
+      </c>
+      <c r="GN61">
+        <v>0</v>
+      </c>
+      <c r="GO61">
+        <v>0</v>
+      </c>
+      <c r="GP61">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:195">
+    <row r="62" spans="1:198">
       <c r="A62" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B62" s="2">
         <v>42886</v>
@@ -37525,7 +38083,7 @@
         <v>0</v>
       </c>
       <c r="FF62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG62">
         <v>0</v>
@@ -37534,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="FI62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ62">
         <v>0</v>
@@ -37624,12 +38182,21 @@
         <v>0</v>
       </c>
       <c r="GM62">
+        <v>0</v>
+      </c>
+      <c r="GN62">
+        <v>0</v>
+      </c>
+      <c r="GO62">
+        <v>0</v>
+      </c>
+      <c r="GP62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:195">
+    <row r="63" spans="1:198">
       <c r="A63" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B63" s="2">
         <v>43083</v>
@@ -38028,13 +38595,13 @@
         <v>0</v>
       </c>
       <c r="ED63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE63">
         <v>0</v>
       </c>
       <c r="EF63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG63">
         <v>0</v>
@@ -38091,7 +38658,7 @@
         <v>0</v>
       </c>
       <c r="EY63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ63">
         <v>0</v>
@@ -38100,7 +38667,7 @@
         <v>0</v>
       </c>
       <c r="FB63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC63">
         <v>0</v>
@@ -38130,7 +38697,7 @@
         <v>0</v>
       </c>
       <c r="FL63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM63">
         <v>0</v>
@@ -38148,7 +38715,7 @@
         <v>0</v>
       </c>
       <c r="FR63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS63">
         <v>0</v>
@@ -38211,12 +38778,21 @@
         <v>0</v>
       </c>
       <c r="GM63">
+        <v>0</v>
+      </c>
+      <c r="GN63">
+        <v>0</v>
+      </c>
+      <c r="GO63">
+        <v>0</v>
+      </c>
+      <c r="GP63">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:195">
+    <row r="64" spans="1:198">
       <c r="A64" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B64" s="2">
         <v>42886</v>
@@ -38579,13 +39155,13 @@
         <v>0</v>
       </c>
       <c r="DR64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS64">
         <v>1</v>
       </c>
       <c r="DT64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU64">
         <v>0</v>
@@ -38633,7 +39209,7 @@
         <v>0</v>
       </c>
       <c r="EJ64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK64">
         <v>0</v>
@@ -38642,7 +39218,7 @@
         <v>0</v>
       </c>
       <c r="EM64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN64">
         <v>0</v>
@@ -38747,7 +39323,7 @@
         <v>0</v>
       </c>
       <c r="FV64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW64">
         <v>0</v>
@@ -38756,7 +39332,7 @@
         <v>0</v>
       </c>
       <c r="FY64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ64">
         <v>0</v>
@@ -38798,12 +39374,21 @@
         <v>0</v>
       </c>
       <c r="GM64">
+        <v>0</v>
+      </c>
+      <c r="GN64">
+        <v>0</v>
+      </c>
+      <c r="GO64">
+        <v>0</v>
+      </c>
+      <c r="GP64">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:195">
+    <row r="65" spans="1:198">
       <c r="A65" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B65" s="2">
         <v>43495</v>
@@ -39256,7 +39841,7 @@
         <v>0</v>
       </c>
       <c r="EV65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW65">
         <v>0</v>
@@ -39265,7 +39850,7 @@
         <v>0</v>
       </c>
       <c r="EY65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ65">
         <v>0</v>
@@ -39277,22 +39862,22 @@
         <v>0</v>
       </c>
       <c r="FC65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD65">
         <v>0</v>
       </c>
       <c r="FE65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG65">
         <v>0</v>
       </c>
       <c r="FH65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI65">
         <v>0</v>
@@ -39307,7 +39892,7 @@
         <v>0</v>
       </c>
       <c r="FM65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN65">
         <v>0</v>
@@ -39316,7 +39901,7 @@
         <v>0</v>
       </c>
       <c r="FP65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ65">
         <v>0</v>
@@ -39376,7 +39961,7 @@
         <v>0</v>
       </c>
       <c r="GJ65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK65">
         <v>0</v>
@@ -39385,12 +39970,21 @@
         <v>0</v>
       </c>
       <c r="GM65">
+        <v>1</v>
+      </c>
+      <c r="GN65">
+        <v>0</v>
+      </c>
+      <c r="GO65">
+        <v>0</v>
+      </c>
+      <c r="GP65">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:195">
+    <row r="66" spans="1:198">
       <c r="A66" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B66" s="2">
         <v>43633</v>
@@ -39753,10 +40347,10 @@
         <v>0</v>
       </c>
       <c r="DR66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT66">
         <v>0</v>
@@ -39879,7 +40473,7 @@
         <v>0</v>
       </c>
       <c r="FH66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI66">
         <v>0</v>
@@ -39888,10 +40482,10 @@
         <v>0</v>
       </c>
       <c r="FK66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM66">
         <v>0</v>
@@ -39900,7 +40494,7 @@
         <v>0</v>
       </c>
       <c r="FO66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP66">
         <v>0</v>
@@ -39972,12 +40566,21 @@
         <v>0</v>
       </c>
       <c r="GM66">
+        <v>0</v>
+      </c>
+      <c r="GN66">
+        <v>0</v>
+      </c>
+      <c r="GO66">
+        <v>0</v>
+      </c>
+      <c r="GP66">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:195">
+    <row r="67" spans="1:198">
       <c r="A67" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B67" s="2">
         <v>42886</v>
@@ -40439,7 +41042,7 @@
         <v>0</v>
       </c>
       <c r="EY67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ67">
         <v>0</v>
@@ -40448,7 +41051,7 @@
         <v>0</v>
       </c>
       <c r="FB67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC67">
         <v>0</v>
@@ -40478,7 +41081,7 @@
         <v>0</v>
       </c>
       <c r="FL67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM67">
         <v>0</v>
@@ -40487,10 +41090,10 @@
         <v>0</v>
       </c>
       <c r="FO67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ67">
         <v>0</v>
@@ -40499,7 +41102,7 @@
         <v>0</v>
       </c>
       <c r="FS67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT67">
         <v>0</v>
@@ -40559,12 +41162,21 @@
         <v>0</v>
       </c>
       <c r="GM67">
+        <v>0</v>
+      </c>
+      <c r="GN67">
+        <v>0</v>
+      </c>
+      <c r="GO67">
+        <v>0</v>
+      </c>
+      <c r="GP67">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:195">
+    <row r="68" spans="1:198">
       <c r="A68" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B68" s="2">
         <v>43390</v>
@@ -40936,19 +41548,19 @@
         <v>0</v>
       </c>
       <c r="DU68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW68">
         <v>0</v>
       </c>
       <c r="DX68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ68">
         <v>0</v>
@@ -40963,13 +41575,13 @@
         <v>0</v>
       </c>
       <c r="ED68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE68">
         <v>0</v>
       </c>
       <c r="EF68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG68">
         <v>0</v>
@@ -40993,7 +41605,7 @@
         <v>0</v>
       </c>
       <c r="EN68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO68">
         <v>0</v>
@@ -41002,7 +41614,7 @@
         <v>0</v>
       </c>
       <c r="EQ68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER68">
         <v>0</v>
@@ -41020,22 +41632,22 @@
         <v>0</v>
       </c>
       <c r="EW68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX68">
         <v>0</v>
       </c>
       <c r="EY68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA68">
         <v>0</v>
       </c>
       <c r="FB68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC68">
         <v>0</v>
@@ -41065,28 +41677,28 @@
         <v>0</v>
       </c>
       <c r="FL68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO68">
         <v>1</v>
       </c>
       <c r="FP68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT68">
         <v>0</v>
@@ -41095,7 +41707,7 @@
         <v>0</v>
       </c>
       <c r="FV68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW68">
         <v>0</v>
@@ -41143,15 +41755,24 @@
         <v>0</v>
       </c>
       <c r="GL68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM68">
+        <v>0</v>
+      </c>
+      <c r="GN68">
+        <v>0</v>
+      </c>
+      <c r="GO68">
+        <v>1</v>
+      </c>
+      <c r="GP68">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:195">
+    <row r="69" spans="1:198">
       <c r="A69" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B69" s="2">
         <v>43208</v>
@@ -41514,19 +42135,19 @@
         <v>0</v>
       </c>
       <c r="DR69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS69">
         <v>1</v>
       </c>
       <c r="DT69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW69">
         <v>0</v>
@@ -41652,19 +42273,19 @@
         <v>0</v>
       </c>
       <c r="FL69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN69">
         <v>0</v>
       </c>
       <c r="FO69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ69">
         <v>0</v>
@@ -41733,12 +42354,21 @@
         <v>0</v>
       </c>
       <c r="GM69">
+        <v>0</v>
+      </c>
+      <c r="GN69">
+        <v>0</v>
+      </c>
+      <c r="GO69">
+        <v>0</v>
+      </c>
+      <c r="GP69">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:195">
+    <row r="70" spans="1:198">
       <c r="A70" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B70" s="2">
         <v>42886</v>
@@ -42188,7 +42818,7 @@
         <v>0</v>
       </c>
       <c r="EU70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV70">
         <v>0</v>
@@ -42197,7 +42827,7 @@
         <v>0</v>
       </c>
       <c r="EX70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY70">
         <v>0</v>
@@ -42320,12 +42950,21 @@
         <v>0</v>
       </c>
       <c r="GM70">
+        <v>0</v>
+      </c>
+      <c r="GN70">
+        <v>0</v>
+      </c>
+      <c r="GO70">
+        <v>0</v>
+      </c>
+      <c r="GP70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:195">
+    <row r="71" spans="1:198">
       <c r="A71" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B71" s="2">
         <v>43494</v>
@@ -42688,10 +43327,10 @@
         <v>0</v>
       </c>
       <c r="DR71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT71">
         <v>0</v>
@@ -42724,25 +43363,25 @@
         <v>0</v>
       </c>
       <c r="ED71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE71">
         <v>0</v>
       </c>
       <c r="EF71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG71">
         <v>0</v>
       </c>
       <c r="EH71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI71">
         <v>0</v>
       </c>
       <c r="EJ71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK71">
         <v>0</v>
@@ -42754,7 +43393,7 @@
         <v>0</v>
       </c>
       <c r="EN71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO71">
         <v>0</v>
@@ -42763,7 +43402,7 @@
         <v>0</v>
       </c>
       <c r="EQ71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER71">
         <v>0</v>
@@ -42787,7 +43426,7 @@
         <v>0</v>
       </c>
       <c r="EY71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ71">
         <v>0</v>
@@ -42796,7 +43435,7 @@
         <v>0</v>
       </c>
       <c r="FB71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC71">
         <v>0</v>
@@ -42814,7 +43453,7 @@
         <v>0</v>
       </c>
       <c r="FH71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI71">
         <v>0</v>
@@ -42823,10 +43462,10 @@
         <v>0</v>
       </c>
       <c r="FK71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM71">
         <v>0</v>
@@ -42835,7 +43474,7 @@
         <v>0</v>
       </c>
       <c r="FO71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP71">
         <v>0</v>
@@ -42847,7 +43486,7 @@
         <v>0</v>
       </c>
       <c r="FS71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT71">
         <v>0</v>
@@ -42856,7 +43495,7 @@
         <v>0</v>
       </c>
       <c r="FV71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW71">
         <v>0</v>
@@ -42907,12 +43546,21 @@
         <v>0</v>
       </c>
       <c r="GM71">
+        <v>0</v>
+      </c>
+      <c r="GN71">
+        <v>0</v>
+      </c>
+      <c r="GO71">
+        <v>0</v>
+      </c>
+      <c r="GP71">
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:195">
+    <row r="72" spans="1:198">
       <c r="A72" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B72" s="2">
         <v>43732</v>
@@ -43311,25 +43959,25 @@
         <v>0</v>
       </c>
       <c r="ED72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE72">
         <v>0</v>
       </c>
       <c r="EF72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH72">
         <v>0</v>
       </c>
       <c r="EI72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK72">
         <v>0</v>
@@ -43338,25 +43986,25 @@
         <v>0</v>
       </c>
       <c r="EM72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO72">
         <v>0</v>
       </c>
       <c r="EP72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER72">
         <v>0</v>
       </c>
       <c r="ES72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET72">
         <v>0</v>
@@ -43374,7 +44022,7 @@
         <v>0</v>
       </c>
       <c r="EY72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ72">
         <v>0</v>
@@ -43383,7 +44031,7 @@
         <v>0</v>
       </c>
       <c r="FB72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC72">
         <v>0</v>
@@ -43395,7 +44043,7 @@
         <v>0</v>
       </c>
       <c r="FF72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG72">
         <v>0</v>
@@ -43404,7 +44052,7 @@
         <v>0</v>
       </c>
       <c r="FI72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ72">
         <v>0</v>
@@ -43413,7 +44061,7 @@
         <v>0</v>
       </c>
       <c r="FL72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM72">
         <v>0</v>
@@ -43425,16 +44073,16 @@
         <v>1</v>
       </c>
       <c r="FP72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ72">
         <v>0</v>
       </c>
       <c r="FR72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT72">
         <v>0</v>
@@ -43467,7 +44115,7 @@
         <v>0</v>
       </c>
       <c r="GD72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE72">
         <v>0</v>
@@ -43476,7 +44124,7 @@
         <v>0</v>
       </c>
       <c r="GG72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH72">
         <v>0</v>
@@ -43494,12 +44142,21 @@
         <v>0</v>
       </c>
       <c r="GM72">
+        <v>0</v>
+      </c>
+      <c r="GN72">
+        <v>0</v>
+      </c>
+      <c r="GO72">
+        <v>0</v>
+      </c>
+      <c r="GP72">
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:195">
+    <row r="73" spans="1:198">
       <c r="A73" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B73" s="2">
         <v>43208</v>
@@ -44081,12 +44738,21 @@
         <v>0</v>
       </c>
       <c r="GM73">
+        <v>0</v>
+      </c>
+      <c r="GN73">
+        <v>0</v>
+      </c>
+      <c r="GO73">
+        <v>0</v>
+      </c>
+      <c r="GP73">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:195">
+    <row r="74" spans="1:198">
       <c r="A74" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B74" s="2">
         <v>43992</v>
@@ -44461,10 +45127,10 @@
         <v>0</v>
       </c>
       <c r="DV74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX74">
         <v>0</v>
@@ -44575,7 +45241,7 @@
         <v>0</v>
       </c>
       <c r="FH74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI74">
         <v>0</v>
@@ -44584,10 +45250,10 @@
         <v>0</v>
       </c>
       <c r="FK74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM74">
         <v>0</v>
@@ -44596,7 +45262,7 @@
         <v>0</v>
       </c>
       <c r="FO74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP74">
         <v>0</v>
@@ -44608,7 +45274,7 @@
         <v>0</v>
       </c>
       <c r="FS74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT74">
         <v>0</v>
@@ -44617,7 +45283,7 @@
         <v>0</v>
       </c>
       <c r="FV74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW74">
         <v>0</v>
@@ -44668,12 +45334,21 @@
         <v>0</v>
       </c>
       <c r="GM74">
+        <v>0</v>
+      </c>
+      <c r="GN74">
+        <v>0</v>
+      </c>
+      <c r="GO74">
+        <v>0</v>
+      </c>
+      <c r="GP74">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:195">
+    <row r="75" spans="1:198">
       <c r="A75" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B75" s="2">
         <v>43083</v>
@@ -45171,7 +45846,7 @@
         <v>0</v>
       </c>
       <c r="FK75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL75">
         <v>0</v>
@@ -45180,7 +45855,7 @@
         <v>0</v>
       </c>
       <c r="FN75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO75">
         <v>0</v>
@@ -45255,12 +45930,21 @@
         <v>0</v>
       </c>
       <c r="GM75">
+        <v>0</v>
+      </c>
+      <c r="GN75">
+        <v>0</v>
+      </c>
+      <c r="GO75">
+        <v>0</v>
+      </c>
+      <c r="GP75">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:195">
+    <row r="76" spans="1:198">
       <c r="A76" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B76" s="2">
         <v>42886</v>
@@ -45761,7 +46445,7 @@
         <v>0</v>
       </c>
       <c r="FL76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM76">
         <v>0</v>
@@ -45770,7 +46454,7 @@
         <v>0</v>
       </c>
       <c r="FO76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP76">
         <v>0</v>
@@ -45842,12 +46526,21 @@
         <v>0</v>
       </c>
       <c r="GM76">
+        <v>0</v>
+      </c>
+      <c r="GN76">
+        <v>0</v>
+      </c>
+      <c r="GO76">
+        <v>0</v>
+      </c>
+      <c r="GP76">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:195">
+    <row r="77" spans="1:198">
       <c r="A77" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B77" s="2">
         <v>43992</v>
@@ -46246,13 +46939,13 @@
         <v>0</v>
       </c>
       <c r="ED77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE77">
         <v>0</v>
       </c>
       <c r="EF77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG77">
         <v>0</v>
@@ -46333,34 +47026,34 @@
         <v>0</v>
       </c>
       <c r="FG77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FH77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI77">
         <v>0</v>
       </c>
       <c r="FJ77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN77">
         <v>0</v>
       </c>
       <c r="FO77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ77">
         <v>0</v>
@@ -46429,12 +47122,21 @@
         <v>0</v>
       </c>
       <c r="GM77">
+        <v>0</v>
+      </c>
+      <c r="GN77">
+        <v>0</v>
+      </c>
+      <c r="GO77">
+        <v>0</v>
+      </c>
+      <c r="GP77">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:195">
+    <row r="78" spans="1:198">
       <c r="A78" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B78" s="2">
         <v>42886</v>
@@ -46821,10 +47523,10 @@
         <v>0</v>
       </c>
       <c r="DZ78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB78">
         <v>0</v>
@@ -47016,12 +47718,21 @@
         <v>0</v>
       </c>
       <c r="GM78">
+        <v>0</v>
+      </c>
+      <c r="GN78">
+        <v>0</v>
+      </c>
+      <c r="GO78">
+        <v>0</v>
+      </c>
+      <c r="GP78">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:195">
+    <row r="79" spans="1:198">
       <c r="A79" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B79" s="2">
         <v>43711</v>
@@ -47378,10 +48089,10 @@
         <v>0</v>
       </c>
       <c r="DP79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR79">
         <v>0</v>
@@ -47603,12 +48314,21 @@
         <v>0</v>
       </c>
       <c r="GM79">
+        <v>0</v>
+      </c>
+      <c r="GN79">
+        <v>0</v>
+      </c>
+      <c r="GO79">
+        <v>0</v>
+      </c>
+      <c r="GP79">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:195">
+    <row r="80" spans="1:198">
       <c r="A80" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B80" s="2">
         <v>42886</v>
@@ -48007,16 +48727,16 @@
         <v>0</v>
       </c>
       <c r="ED80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH80">
         <v>0</v>
@@ -48037,7 +48757,7 @@
         <v>0</v>
       </c>
       <c r="EN80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO80">
         <v>0</v>
@@ -48046,7 +48766,7 @@
         <v>0</v>
       </c>
       <c r="EQ80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER80">
         <v>0</v>
@@ -48070,7 +48790,7 @@
         <v>0</v>
       </c>
       <c r="EY80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ80">
         <v>0</v>
@@ -48088,10 +48808,10 @@
         <v>0</v>
       </c>
       <c r="FE80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG80">
         <v>0</v>
@@ -48100,7 +48820,7 @@
         <v>0</v>
       </c>
       <c r="FI80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ80">
         <v>0</v>
@@ -48109,7 +48829,7 @@
         <v>0</v>
       </c>
       <c r="FL80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM80">
         <v>0</v>
@@ -48118,13 +48838,13 @@
         <v>0</v>
       </c>
       <c r="FO80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP80">
         <v>0</v>
       </c>
       <c r="FQ80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR80">
         <v>0</v>
@@ -48133,7 +48853,7 @@
         <v>0</v>
       </c>
       <c r="FT80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU80">
         <v>0</v>
@@ -48190,12 +48910,21 @@
         <v>0</v>
       </c>
       <c r="GM80">
+        <v>0</v>
+      </c>
+      <c r="GN80">
+        <v>0</v>
+      </c>
+      <c r="GO80">
+        <v>0</v>
+      </c>
+      <c r="GP80">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:195">
+    <row r="81" spans="1:198">
       <c r="A81" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B81" s="2">
         <v>42886</v>
@@ -48546,19 +49275,19 @@
         <v>0</v>
       </c>
       <c r="DN81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP81">
         <v>0</v>
       </c>
       <c r="DQ81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS81">
         <v>0</v>
@@ -48777,12 +49506,21 @@
         <v>0</v>
       </c>
       <c r="GM81">
+        <v>0</v>
+      </c>
+      <c r="GN81">
+        <v>0</v>
+      </c>
+      <c r="GO81">
+        <v>0</v>
+      </c>
+      <c r="GP81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:195">
+    <row r="82" spans="1:198">
       <c r="A82" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B82" s="2">
         <v>42886</v>
@@ -49364,12 +50102,21 @@
         <v>0</v>
       </c>
       <c r="GM82">
+        <v>0</v>
+      </c>
+      <c r="GN82">
+        <v>0</v>
+      </c>
+      <c r="GO82">
+        <v>0</v>
+      </c>
+      <c r="GP82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:195">
+    <row r="83" spans="1:198">
       <c r="A83" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B83" s="2">
         <v>42886</v>
@@ -49951,12 +50698,21 @@
         <v>0</v>
       </c>
       <c r="GM83">
+        <v>0</v>
+      </c>
+      <c r="GN83">
+        <v>0</v>
+      </c>
+      <c r="GO83">
+        <v>0</v>
+      </c>
+      <c r="GP83">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:195">
+    <row r="84" spans="1:198">
       <c r="A84" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B84" s="2">
         <v>43390</v>
@@ -50355,13 +51111,13 @@
         <v>0</v>
       </c>
       <c r="ED84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE84">
         <v>0</v>
       </c>
       <c r="EF84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG84">
         <v>0</v>
@@ -50460,7 +51216,7 @@
         <v>0</v>
       </c>
       <c r="FM84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN84">
         <v>0</v>
@@ -50469,7 +51225,7 @@
         <v>0</v>
       </c>
       <c r="FP84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ84">
         <v>0</v>
@@ -50538,12 +51294,21 @@
         <v>0</v>
       </c>
       <c r="GM84">
+        <v>0</v>
+      </c>
+      <c r="GN84">
+        <v>0</v>
+      </c>
+      <c r="GO84">
+        <v>0</v>
+      </c>
+      <c r="GP84">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:195">
+    <row r="85" spans="1:198">
       <c r="A85" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B85" s="2">
         <v>43390</v>
@@ -50906,28 +51671,28 @@
         <v>0</v>
       </c>
       <c r="DR85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT85">
         <v>0</v>
       </c>
       <c r="DU85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW85">
         <v>0</v>
       </c>
       <c r="DX85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ85">
         <v>0</v>
@@ -50942,13 +51707,13 @@
         <v>0</v>
       </c>
       <c r="ED85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE85">
         <v>0</v>
       </c>
       <c r="EF85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG85">
         <v>0</v>
@@ -50960,7 +51725,7 @@
         <v>0</v>
       </c>
       <c r="EJ85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK85">
         <v>0</v>
@@ -50969,7 +51734,7 @@
         <v>0</v>
       </c>
       <c r="EM85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN85">
         <v>0</v>
@@ -50978,7 +51743,7 @@
         <v>0</v>
       </c>
       <c r="EP85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ85">
         <v>0</v>
@@ -50987,7 +51752,7 @@
         <v>0</v>
       </c>
       <c r="ES85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET85">
         <v>0</v>
@@ -51002,19 +51767,19 @@
         <v>0</v>
       </c>
       <c r="EX85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ85">
         <v>0</v>
       </c>
       <c r="FA85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC85">
         <v>0</v>
@@ -51032,7 +51797,7 @@
         <v>0</v>
       </c>
       <c r="FH85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI85">
         <v>0</v>
@@ -51041,31 +51806,31 @@
         <v>0</v>
       </c>
       <c r="FK85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP85">
         <v>1</v>
       </c>
       <c r="FQ85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR85">
         <v>0</v>
       </c>
       <c r="FS85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT85">
         <v>0</v>
@@ -51074,22 +51839,22 @@
         <v>0</v>
       </c>
       <c r="FV85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW85">
         <v>0</v>
       </c>
       <c r="FX85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ85">
         <v>0</v>
       </c>
       <c r="GA85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB85">
         <v>0</v>
@@ -51098,7 +51863,7 @@
         <v>0</v>
       </c>
       <c r="GD85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE85">
         <v>0</v>
@@ -51107,7 +51872,7 @@
         <v>0</v>
       </c>
       <c r="GG85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH85">
         <v>0</v>
@@ -51122,15 +51887,24 @@
         <v>0</v>
       </c>
       <c r="GL85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM85">
+        <v>0</v>
+      </c>
+      <c r="GN85">
+        <v>0</v>
+      </c>
+      <c r="GO85">
+        <v>1</v>
+      </c>
+      <c r="GP85">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:195">
+    <row r="86" spans="1:198">
       <c r="A86" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B86" s="2">
         <v>42886</v>
@@ -51634,19 +52408,19 @@
         <v>0</v>
       </c>
       <c r="FM86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO86">
         <v>0</v>
       </c>
       <c r="FP86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR86">
         <v>0</v>
@@ -51712,12 +52486,21 @@
         <v>0</v>
       </c>
       <c r="GM86">
+        <v>0</v>
+      </c>
+      <c r="GN86">
+        <v>0</v>
+      </c>
+      <c r="GO86">
+        <v>0</v>
+      </c>
+      <c r="GP86">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:195">
+    <row r="87" spans="1:198">
       <c r="A87" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B87" s="2">
         <v>42886</v>
@@ -52134,7 +52917,7 @@
         <v>0</v>
       </c>
       <c r="EJ87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK87">
         <v>0</v>
@@ -52143,7 +52926,7 @@
         <v>0</v>
       </c>
       <c r="EM87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN87">
         <v>0</v>
@@ -52206,7 +52989,7 @@
         <v>0</v>
       </c>
       <c r="FH87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI87">
         <v>0</v>
@@ -52215,7 +52998,7 @@
         <v>0</v>
       </c>
       <c r="FK87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL87">
         <v>0</v>
@@ -52299,12 +53082,21 @@
         <v>0</v>
       </c>
       <c r="GM87">
+        <v>0</v>
+      </c>
+      <c r="GN87">
+        <v>0</v>
+      </c>
+      <c r="GO87">
+        <v>0</v>
+      </c>
+      <c r="GP87">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:195">
+    <row r="88" spans="1:198">
       <c r="A88" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B88" s="2">
         <v>43620</v>
@@ -52667,10 +53459,10 @@
         <v>0</v>
       </c>
       <c r="DR88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT88">
         <v>0</v>
@@ -52685,10 +53477,10 @@
         <v>0</v>
       </c>
       <c r="DX88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ88">
         <v>0</v>
@@ -52703,13 +53495,13 @@
         <v>0</v>
       </c>
       <c r="ED88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE88">
         <v>0</v>
       </c>
       <c r="EF88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG88">
         <v>0</v>
@@ -52733,19 +53525,19 @@
         <v>0</v>
       </c>
       <c r="EN88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO88">
         <v>0</v>
       </c>
       <c r="EP88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES88">
         <v>1</v>
@@ -52754,10 +53546,10 @@
         <v>0</v>
       </c>
       <c r="EU88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW88">
         <v>0</v>
@@ -52766,7 +53558,7 @@
         <v>0</v>
       </c>
       <c r="EY88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ88">
         <v>0</v>
@@ -52775,7 +53567,7 @@
         <v>0</v>
       </c>
       <c r="FB88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC88">
         <v>0</v>
@@ -52805,7 +53597,7 @@
         <v>0</v>
       </c>
       <c r="FL88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM88">
         <v>0</v>
@@ -52823,7 +53615,7 @@
         <v>0</v>
       </c>
       <c r="FR88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS88">
         <v>0</v>
@@ -52859,7 +53651,7 @@
         <v>0</v>
       </c>
       <c r="GD88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE88">
         <v>0</v>
@@ -52868,7 +53660,7 @@
         <v>0</v>
       </c>
       <c r="GG88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH88">
         <v>0</v>
@@ -52886,12 +53678,21 @@
         <v>0</v>
       </c>
       <c r="GM88">
+        <v>0</v>
+      </c>
+      <c r="GN88">
+        <v>0</v>
+      </c>
+      <c r="GO88">
+        <v>0</v>
+      </c>
+      <c r="GP88">
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:195">
+    <row r="89" spans="1:198">
       <c r="A89" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B89" s="2">
         <v>42886</v>
@@ -53422,7 +54223,7 @@
         <v>0</v>
       </c>
       <c r="FV89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW89">
         <v>0</v>
@@ -53431,7 +54232,7 @@
         <v>0</v>
       </c>
       <c r="FY89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ89">
         <v>0</v>
@@ -53473,12 +54274,21 @@
         <v>0</v>
       </c>
       <c r="GM89">
+        <v>0</v>
+      </c>
+      <c r="GN89">
+        <v>0</v>
+      </c>
+      <c r="GO89">
+        <v>0</v>
+      </c>
+      <c r="GP89">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:195">
+    <row r="90" spans="1:198">
       <c r="A90" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B90" s="2">
         <v>43390</v>
@@ -53844,16 +54654,16 @@
         <v>0</v>
       </c>
       <c r="DS90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW90">
         <v>0</v>
@@ -53877,13 +54687,13 @@
         <v>0</v>
       </c>
       <c r="ED90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE90">
         <v>0</v>
       </c>
       <c r="EF90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG90">
         <v>0</v>
@@ -53919,7 +54729,7 @@
         <v>0</v>
       </c>
       <c r="ER90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES90">
         <v>0</v>
@@ -53928,28 +54738,28 @@
         <v>0</v>
       </c>
       <c r="EU90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV90">
         <v>0</v>
       </c>
       <c r="EW90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX90">
         <v>0</v>
       </c>
       <c r="EY90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA90">
         <v>0</v>
       </c>
       <c r="FB90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC90">
         <v>0</v>
@@ -53979,10 +54789,10 @@
         <v>0</v>
       </c>
       <c r="FL90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN90">
         <v>0</v>
@@ -53991,13 +54801,13 @@
         <v>1</v>
       </c>
       <c r="FP90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ90">
         <v>0</v>
       </c>
       <c r="FR90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS90">
         <v>0</v>
@@ -54039,7 +54849,7 @@
         <v>0</v>
       </c>
       <c r="GF90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG90">
         <v>0</v>
@@ -54057,15 +54867,24 @@
         <v>0</v>
       </c>
       <c r="GL90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GM90">
+        <v>0</v>
+      </c>
+      <c r="GN90">
+        <v>0</v>
+      </c>
+      <c r="GO90">
+        <v>0</v>
+      </c>
+      <c r="GP90">
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:195">
+    <row r="91" spans="1:198">
       <c r="A91" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B91" s="2">
         <v>43495</v>
@@ -54500,19 +55319,19 @@
         <v>0</v>
       </c>
       <c r="EP91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER91">
         <v>0</v>
       </c>
       <c r="ES91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU91">
         <v>0</v>
@@ -54521,7 +55340,7 @@
         <v>0</v>
       </c>
       <c r="EW91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX91">
         <v>0</v>
@@ -54530,7 +55349,7 @@
         <v>0</v>
       </c>
       <c r="EZ91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA91">
         <v>0</v>
@@ -54566,10 +55385,10 @@
         <v>0</v>
       </c>
       <c r="FL91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN91">
         <v>0</v>
@@ -54578,13 +55397,13 @@
         <v>1</v>
       </c>
       <c r="FP91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ91">
         <v>0</v>
       </c>
       <c r="FR91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS91">
         <v>0</v>
@@ -54647,15 +55466,24 @@
         <v>0</v>
       </c>
       <c r="GM91">
+        <v>0</v>
+      </c>
+      <c r="GN91">
+        <v>0</v>
+      </c>
+      <c r="GO91">
+        <v>0</v>
+      </c>
+      <c r="GP91">
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:195">
+    <row r="92" spans="1:198">
       <c r="A92" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C92">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D92">
         <v>9</v>
@@ -54670,7 +55498,7 @@
         <v>16</v>
       </c>
       <c r="H92">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I92">
         <v>34</v>
@@ -54793,7 +55621,7 @@
         <v>6</v>
       </c>
       <c r="AW92">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX92">
         <v>4</v>
@@ -54802,13 +55630,13 @@
         <v>6</v>
       </c>
       <c r="AZ92">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA92">
         <v>21</v>
       </c>
       <c r="BB92">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC92">
         <v>10</v>
@@ -54844,7 +55672,7 @@
         <v>4</v>
       </c>
       <c r="BN92">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BO92">
         <v>9</v>
@@ -54865,7 +55693,7 @@
         <v>6</v>
       </c>
       <c r="BU92">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BV92">
         <v>61</v>
@@ -55000,237 +55828,246 @@
         <v>6</v>
       </c>
       <c r="DN92">
+        <v>4</v>
+      </c>
+      <c r="DO92">
         <v>7</v>
       </c>
-      <c r="DO92">
+      <c r="DP92">
+        <v>19</v>
+      </c>
+      <c r="DQ92">
+        <v>4</v>
+      </c>
+      <c r="DR92">
+        <v>14</v>
+      </c>
+      <c r="DS92">
+        <v>181</v>
+      </c>
+      <c r="DT92">
         <v>17</v>
       </c>
-      <c r="DP92">
-        <v>4</v>
-      </c>
-      <c r="DQ92">
+      <c r="DU92">
+        <v>8</v>
+      </c>
+      <c r="DV92">
+        <v>41</v>
+      </c>
+      <c r="DW92">
         <v>12</v>
       </c>
-      <c r="DR92">
-        <v>179</v>
-      </c>
-      <c r="DS92">
-        <v>17</v>
-      </c>
-      <c r="DT92">
-        <v>8</v>
-      </c>
-      <c r="DU92">
-        <v>41</v>
-      </c>
-      <c r="DV92">
-        <v>12</v>
-      </c>
-      <c r="DW92">
+      <c r="DX92">
         <v>5</v>
       </c>
-      <c r="DX92">
+      <c r="DY92">
         <v>22</v>
       </c>
-      <c r="DY92">
+      <c r="DZ92">
         <v>5</v>
-      </c>
-      <c r="DZ92">
-        <v>14</v>
       </c>
       <c r="EA92">
         <v>14</v>
       </c>
       <c r="EB92">
+        <v>14</v>
+      </c>
+      <c r="EC92">
         <v>18</v>
       </c>
-      <c r="EC92">
+      <c r="ED92">
         <v>13</v>
       </c>
-      <c r="ED92">
+      <c r="EE92">
+        <v>5</v>
+      </c>
+      <c r="EF92">
         <v>155</v>
       </c>
-      <c r="EE92">
+      <c r="EG92">
         <v>37</v>
       </c>
-      <c r="EF92">
+      <c r="EH92">
         <v>6</v>
       </c>
-      <c r="EG92">
+      <c r="EI92">
         <v>38</v>
       </c>
-      <c r="EH92">
+      <c r="EJ92">
         <v>5</v>
       </c>
-      <c r="EI92">
+      <c r="EK92">
         <v>18</v>
       </c>
-      <c r="EJ92">
+      <c r="EL92">
+        <v>4</v>
+      </c>
+      <c r="EM92">
         <v>25</v>
       </c>
-      <c r="EK92">
+      <c r="EN92">
         <v>5</v>
       </c>
-      <c r="EL92">
+      <c r="EO92">
         <v>11</v>
       </c>
-      <c r="EM92">
+      <c r="EP92">
         <v>9</v>
       </c>
-      <c r="EN92">
+      <c r="EQ92">
         <v>60</v>
       </c>
-      <c r="EO92">
+      <c r="ER92">
         <v>6</v>
       </c>
-      <c r="EP92">
+      <c r="ES92">
         <v>15</v>
       </c>
-      <c r="EQ92">
+      <c r="ET92">
         <v>17</v>
       </c>
-      <c r="ER92">
-        <v>29</v>
-      </c>
-      <c r="ES92">
+      <c r="EU92">
+        <v>30</v>
+      </c>
+      <c r="EV92">
         <v>12</v>
       </c>
-      <c r="ET92">
+      <c r="EW92">
         <v>8</v>
       </c>
-      <c r="EU92">
-        <v>17</v>
-      </c>
-      <c r="EV92">
+      <c r="EX92">
+        <v>18</v>
+      </c>
+      <c r="EY92">
         <v>9</v>
       </c>
-      <c r="EW92">
-        <v>65</v>
-      </c>
-      <c r="EX92">
+      <c r="EZ92">
+        <v>66</v>
+      </c>
+      <c r="FA92">
         <v>12</v>
       </c>
-      <c r="EY92">
+      <c r="FB92">
         <v>98</v>
       </c>
-      <c r="EZ92">
+      <c r="FC92">
+        <v>6</v>
+      </c>
+      <c r="FD92">
+        <v>15</v>
+      </c>
+      <c r="FE92">
+        <v>11</v>
+      </c>
+      <c r="FF92">
+        <v>8</v>
+      </c>
+      <c r="FG92">
+        <v>11</v>
+      </c>
+      <c r="FH92">
+        <v>12</v>
+      </c>
+      <c r="FI92">
+        <v>43</v>
+      </c>
+      <c r="FJ92">
+        <v>15</v>
+      </c>
+      <c r="FK92">
+        <v>61</v>
+      </c>
+      <c r="FL92">
+        <v>4</v>
+      </c>
+      <c r="FM92">
+        <v>26</v>
+      </c>
+      <c r="FN92">
+        <v>4</v>
+      </c>
+      <c r="FO92">
+        <v>215</v>
+      </c>
+      <c r="FP92">
+        <v>143</v>
+      </c>
+      <c r="FQ92">
+        <v>44</v>
+      </c>
+      <c r="FR92">
+        <v>107</v>
+      </c>
+      <c r="FS92">
+        <v>36</v>
+      </c>
+      <c r="FT92">
+        <v>32</v>
+      </c>
+      <c r="FU92">
+        <v>6</v>
+      </c>
+      <c r="FV92">
+        <v>40</v>
+      </c>
+      <c r="FW92">
+        <v>6</v>
+      </c>
+      <c r="FX92">
+        <v>6</v>
+      </c>
+      <c r="FY92">
+        <v>16</v>
+      </c>
+      <c r="FZ92">
         <v>5</v>
       </c>
-      <c r="FA92">
-        <v>15</v>
-      </c>
-      <c r="FB92">
+      <c r="GA92">
+        <v>7</v>
+      </c>
+      <c r="GB92">
+        <v>7</v>
+      </c>
+      <c r="GC92">
+        <v>35</v>
+      </c>
+      <c r="GD92">
+        <v>14</v>
+      </c>
+      <c r="GE92">
+        <v>5</v>
+      </c>
+      <c r="GF92">
+        <v>4</v>
+      </c>
+      <c r="GG92">
+        <v>24</v>
+      </c>
+      <c r="GH92">
         <v>11</v>
       </c>
-      <c r="FC92">
-        <v>8</v>
-      </c>
-      <c r="FD92">
-        <v>11</v>
-      </c>
-      <c r="FE92">
-        <v>12</v>
-      </c>
-      <c r="FF92">
-        <v>43</v>
-      </c>
-      <c r="FG92">
-        <v>15</v>
-      </c>
-      <c r="FH92">
-        <v>61</v>
-      </c>
-      <c r="FI92">
+      <c r="GI92">
+        <v>30</v>
+      </c>
+      <c r="GJ92">
+        <v>14</v>
+      </c>
+      <c r="GK92">
+        <v>9</v>
+      </c>
+      <c r="GL92">
+        <v>25</v>
+      </c>
+      <c r="GM92">
+        <v>10</v>
+      </c>
+      <c r="GN92">
         <v>4</v>
       </c>
-      <c r="FJ92">
-        <v>26</v>
-      </c>
-      <c r="FK92">
-        <v>4</v>
-      </c>
-      <c r="FL92">
-        <v>214</v>
-      </c>
-      <c r="FM92">
-        <v>139</v>
-      </c>
-      <c r="FN92">
-        <v>43</v>
-      </c>
-      <c r="FO92">
-        <v>107</v>
-      </c>
-      <c r="FP92">
-        <v>36</v>
-      </c>
-      <c r="FQ92">
-        <v>30</v>
-      </c>
-      <c r="FR92">
-        <v>6</v>
-      </c>
-      <c r="FS92">
-        <v>40</v>
-      </c>
-      <c r="FT92">
-        <v>5</v>
-      </c>
-      <c r="FU92">
-        <v>5</v>
-      </c>
-      <c r="FV92">
-        <v>16</v>
-      </c>
-      <c r="FW92">
-        <v>5</v>
-      </c>
-      <c r="FX92">
-        <v>7</v>
-      </c>
-      <c r="FY92">
-        <v>6</v>
-      </c>
-      <c r="FZ92">
-        <v>35</v>
-      </c>
-      <c r="GA92">
-        <v>14</v>
-      </c>
-      <c r="GB92">
-        <v>5</v>
-      </c>
-      <c r="GC92">
-        <v>4</v>
-      </c>
-      <c r="GD92">
-        <v>24</v>
-      </c>
-      <c r="GE92">
-        <v>11</v>
-      </c>
-      <c r="GF92">
-        <v>30</v>
-      </c>
-      <c r="GG92">
-        <v>14</v>
-      </c>
-      <c r="GH92">
-        <v>9</v>
-      </c>
-      <c r="GI92">
-        <v>24</v>
-      </c>
-      <c r="GJ92">
-        <v>10</v>
-      </c>
-      <c r="GK92">
-        <v>4</v>
-      </c>
-      <c r="GL92">
+      <c r="GO92">
         <v>48</v>
       </c>
-      <c r="GM92">
+      <c r="GP92">
         <v>0</v>
       </c>
     </row>
